--- a/capiq_data/in_process_data/IQ263609.xlsx
+++ b/capiq_data/in_process_data/IQ263609.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A21F48F-532C-41A1-BA72-4ACBBD83B212}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0024C6D2-537C-43F5-A53A-47EEF188F3EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"6d3de310-a8f6-4f73-9541-00738d5dd3d5"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"5b22b82e-1151-4c4b-aa87-d0f62b096aa3"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
     <t>FQ42010</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ42020</t>
+  </si>
+  <si>
+    <t>FQ12021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,76 +853,76 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40482</v>
+        <v>36922</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>48.198</v>
+        <v>6.3090000000000002</v>
       </c>
       <c r="D2">
-        <v>313.35199999999998</v>
+        <v>49.975999999999999</v>
       </c>
       <c r="E2">
-        <v>197.49</v>
+        <v>33.734999999999999</v>
       </c>
       <c r="F2">
-        <v>189.48099999999999</v>
+        <v>33.186</v>
       </c>
       <c r="G2">
-        <v>491.34</v>
+        <v>120.047</v>
       </c>
       <c r="H2">
-        <v>2525.018</v>
+        <v>321.49</v>
       </c>
       <c r="I2">
-        <v>51.792000000000002</v>
+        <v>25.597999999999999</v>
       </c>
       <c r="J2">
-        <v>591.97699999999998</v>
+        <v>40.621000000000002</v>
       </c>
       <c r="K2">
-        <v>19.158999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.57599999999999996</v>
       </c>
       <c r="N2">
-        <v>199.52</v>
+        <v>63.121000000000002</v>
       </c>
       <c r="O2">
-        <v>858.24199999999996</v>
+        <v>115.67100000000001</v>
       </c>
       <c r="P2">
-        <v>612.43600000000004</v>
+        <v>42.667999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.33300000000000002</v>
+        <v>-2.6280000000000001</v>
       </c>
       <c r="R2">
-        <v>40482</v>
+        <v>36922</v>
       </c>
       <c r="S2">
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1666.7760000000001</v>
+        <v>205.81899999999999</v>
       </c>
       <c r="U2">
-        <v>3.573</v>
+        <v>11.98</v>
       </c>
       <c r="V2">
-        <v>64.61</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="W2">
-        <v>-1.37</v>
+        <v>-0.28899999999999998</v>
       </c>
       <c r="X2">
-        <v>-31.248000000000001</v>
+        <v>1.5589999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>48.198</v>
+        <v>6.3090000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40574</v>
+        <v>37011</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>39.215000000000003</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="D3">
-        <v>293.22899999999998</v>
+        <v>57.182000000000002</v>
       </c>
       <c r="E3">
-        <v>189.46199999999999</v>
+        <v>40.417000000000002</v>
       </c>
       <c r="F3">
-        <v>178.506</v>
+        <v>37.469000000000001</v>
       </c>
       <c r="G3">
-        <v>503.34300000000002</v>
+        <v>128.04499999999999</v>
       </c>
       <c r="H3">
-        <v>2571.9380000000001</v>
+        <v>331.09100000000001</v>
       </c>
       <c r="I3">
-        <v>48.341000000000001</v>
+        <v>9.6679999999999993</v>
       </c>
       <c r="J3">
-        <v>586.72400000000005</v>
+        <v>41.956000000000003</v>
       </c>
       <c r="K3">
-        <v>15.486000000000001</v>
+        <v>8.0060000000000002</v>
       </c>
       <c r="L3">
-        <v>-3.673</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-514.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>186.07400000000001</v>
+        <v>54.42</v>
       </c>
       <c r="O3">
-        <v>849.63900000000001</v>
+        <v>109.021</v>
       </c>
       <c r="P3">
-        <v>602.80999999999995</v>
+        <v>51.841999999999999</v>
       </c>
       <c r="Q3">
-        <v>-0.253</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="R3">
-        <v>40574</v>
+        <v>37011</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1722.299</v>
+        <v>222.07</v>
       </c>
       <c r="U3">
-        <v>3.32</v>
+        <v>11.897</v>
       </c>
       <c r="V3">
-        <v>72.930999999999997</v>
+        <v>7.6459999999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-11.945</v>
+        <v>12.526</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>39.215000000000003</v>
+        <v>8.7100000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40663</v>
+        <v>37103</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>35.36</v>
+        <v>10.361000000000001</v>
       </c>
       <c r="D4">
-        <v>325.30099999999999</v>
+        <v>61.365000000000002</v>
       </c>
       <c r="E4">
-        <v>203.76400000000001</v>
+        <v>43.052999999999997</v>
       </c>
       <c r="F4">
-        <v>201.762</v>
+        <v>39.029000000000003</v>
       </c>
       <c r="G4">
-        <v>538.43499999999995</v>
+        <v>133.46</v>
       </c>
       <c r="H4">
-        <v>2625.192</v>
+        <v>364.64100000000002</v>
       </c>
       <c r="I4">
-        <v>51.640999999999998</v>
+        <v>11.311999999999999</v>
       </c>
       <c r="J4">
-        <v>525.51800000000003</v>
+        <v>45.594000000000001</v>
       </c>
       <c r="K4">
-        <v>16.597000000000001</v>
+        <v>7.6550000000000002</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>206.15</v>
+        <v>66.843999999999994</v>
       </c>
       <c r="O4">
-        <v>814.86599999999999</v>
+        <v>125.351</v>
       </c>
       <c r="P4">
-        <v>554.71500000000003</v>
+        <v>55.029000000000003</v>
       </c>
       <c r="Q4">
-        <v>5.1100000000000003</v>
+        <v>-0.629</v>
       </c>
       <c r="R4">
-        <v>40663</v>
+        <v>37103</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1810.326</v>
+        <v>239.29</v>
       </c>
       <c r="U4">
-        <v>8.43</v>
+        <v>11.268000000000001</v>
       </c>
       <c r="V4">
-        <v>64.891000000000005</v>
+        <v>9.843</v>
       </c>
       <c r="W4">
-        <v>-1.385</v>
+        <v>-0.749</v>
       </c>
       <c r="X4">
-        <v>-32.801000000000002</v>
+        <v>10.289</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>35.36</v>
+        <v>10.361000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40755</v>
+        <v>37195</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>44.216999999999999</v>
+        <v>11.756</v>
       </c>
       <c r="D5">
-        <v>351.39600000000002</v>
+        <v>66.049000000000007</v>
       </c>
       <c r="E5">
-        <v>218.416</v>
+        <v>55.317999999999998</v>
       </c>
       <c r="F5">
-        <v>202.80199999999999</v>
+        <v>43.683999999999997</v>
       </c>
       <c r="G5">
-        <v>543.63599999999997</v>
+        <v>155.20500000000001</v>
       </c>
       <c r="H5">
-        <v>2615.3339999999998</v>
+        <v>396.84899999999999</v>
       </c>
       <c r="I5">
-        <v>58.905000000000001</v>
+        <v>11.148999999999999</v>
       </c>
       <c r="J5">
-        <v>410.58499999999998</v>
+        <v>60.552999999999997</v>
       </c>
       <c r="K5">
-        <v>26.234999999999999</v>
+        <v>6.3120000000000003</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>237.69300000000001</v>
+        <v>67.972999999999999</v>
       </c>
       <c r="O5">
-        <v>727.65599999999995</v>
+        <v>140.565</v>
       </c>
       <c r="P5">
-        <v>449.32</v>
+        <v>68.802000000000007</v>
       </c>
       <c r="Q5">
-        <v>-0.55800000000000005</v>
+        <v>1.66</v>
       </c>
       <c r="R5">
-        <v>40755</v>
+        <v>37195</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="T5">
-        <v>1887.6780000000001</v>
+        <v>256.28399999999999</v>
       </c>
       <c r="U5">
-        <v>7.8719999999999999</v>
+        <v>12.928000000000001</v>
       </c>
       <c r="V5">
-        <v>87.468999999999994</v>
+        <v>5.68</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-64.447000000000003</v>
+        <v>13.612</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,208 +1180,208 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>44.216999999999999</v>
+        <v>11.756</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40847</v>
+        <v>37287</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>56.637999999999998</v>
+        <v>9.4049999999999994</v>
       </c>
       <c r="D6">
-        <v>360.90899999999999</v>
+        <v>58.112000000000002</v>
       </c>
       <c r="E6">
-        <v>214.779</v>
+        <v>56.015999999999998</v>
       </c>
       <c r="F6">
-        <v>223.63300000000001</v>
+        <v>37.484999999999999</v>
       </c>
       <c r="G6">
-        <v>540.34699999999998</v>
+        <v>148.98099999999999</v>
       </c>
       <c r="H6">
-        <v>2624.518</v>
+        <v>389.94</v>
       </c>
       <c r="I6">
-        <v>61.755000000000003</v>
+        <v>10.537000000000001</v>
       </c>
       <c r="J6">
-        <v>327.45299999999997</v>
+        <v>36.813000000000002</v>
       </c>
       <c r="K6">
-        <v>40.478999999999999</v>
+        <v>4.984</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-1.33</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-4.2279999999999998</v>
       </c>
       <c r="N6">
-        <v>267.20600000000002</v>
+        <v>87.465000000000003</v>
       </c>
       <c r="O6">
-        <v>687.03</v>
+        <v>127.256</v>
       </c>
       <c r="P6">
-        <v>385.03199999999998</v>
+        <v>63.915999999999997</v>
       </c>
       <c r="Q6">
-        <v>-2.6970000000000001</v>
+        <v>-8.0609999999999999</v>
       </c>
       <c r="R6">
-        <v>40847</v>
+        <v>37287</v>
       </c>
       <c r="S6">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1937.4880000000001</v>
+        <v>262.68400000000003</v>
       </c>
       <c r="U6">
-        <v>5.1749999999999998</v>
+        <v>4.867</v>
       </c>
       <c r="V6">
-        <v>110.99</v>
+        <v>4.1680000000000001</v>
       </c>
       <c r="W6">
-        <v>-1.431</v>
+        <v>-0.76100000000000001</v>
       </c>
       <c r="X6">
-        <v>-63.68</v>
+        <v>-4.1420000000000003</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>3.6219999999999999</v>
       </c>
       <c r="AA6">
-        <v>56.637999999999998</v>
+        <v>9.4049999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40939</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>54.622999999999998</v>
+        <v>9.9179999999999993</v>
       </c>
       <c r="D7">
-        <v>326.06</v>
+        <v>71.91</v>
       </c>
       <c r="E7">
-        <v>200.16</v>
+        <v>66.313000000000002</v>
       </c>
       <c r="F7">
-        <v>210.453</v>
+        <v>44.164000000000001</v>
       </c>
       <c r="G7">
-        <v>555.26300000000003</v>
+        <v>198.59399999999999</v>
       </c>
       <c r="H7">
-        <v>2599.2669999999998</v>
+        <v>531.93100000000004</v>
       </c>
       <c r="I7">
-        <v>48.204999999999998</v>
+        <v>15.257999999999999</v>
       </c>
       <c r="J7">
-        <v>371.11399999999998</v>
+        <v>70.790000000000006</v>
       </c>
       <c r="K7">
-        <v>26.690999999999999</v>
+        <v>69.436000000000007</v>
       </c>
       <c r="L7">
-        <v>-13.788</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-292.02499999999998</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>206.392</v>
+        <v>180.71799999999999</v>
       </c>
       <c r="O7">
-        <v>661.91</v>
+        <v>255.339</v>
       </c>
       <c r="P7">
-        <v>415.10500000000002</v>
+        <v>164.56</v>
       </c>
       <c r="Q7">
-        <v>2.5059999999999998</v>
+        <v>12.166</v>
       </c>
       <c r="R7">
-        <v>40939</v>
+        <v>37376</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1937.357</v>
+        <v>276.59199999999998</v>
       </c>
       <c r="U7">
-        <v>7.681</v>
+        <v>17.033000000000001</v>
       </c>
       <c r="V7">
-        <v>41.55</v>
+        <v>20.513999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-20.196999999999999</v>
+        <v>37.201000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="AA7">
-        <v>54.622999999999998</v>
+        <v>9.9179999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41029</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>54.920999999999999</v>
+        <v>13.361000000000001</v>
       </c>
       <c r="D8">
-        <v>344.589</v>
+        <v>90.563000000000002</v>
       </c>
       <c r="E8">
-        <v>202.88200000000001</v>
+        <v>69.778999999999996</v>
       </c>
       <c r="F8">
-        <v>220.696</v>
+        <v>55.719000000000001</v>
       </c>
       <c r="G8">
-        <v>576.28300000000002</v>
+        <v>198.26900000000001</v>
       </c>
       <c r="H8">
-        <v>2628.5610000000001</v>
+        <v>552.64</v>
       </c>
       <c r="I8">
-        <v>54.926000000000002</v>
+        <v>14.486000000000001</v>
       </c>
       <c r="J8">
-        <v>275.09199999999998</v>
+        <v>135.34200000000001</v>
       </c>
       <c r="K8">
-        <v>31.716000000000001</v>
+        <v>3.7549999999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>228.125</v>
+        <v>117.825</v>
       </c>
       <c r="O8">
-        <v>590.60500000000002</v>
+        <v>257.77499999999998</v>
       </c>
       <c r="P8">
-        <v>323.50799999999998</v>
+        <v>168.28299999999999</v>
       </c>
       <c r="Q8">
-        <v>6.4000000000000001E-2</v>
+        <v>-8.2430000000000003</v>
       </c>
       <c r="R8">
-        <v>41029</v>
+        <v>37468</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2037.9559999999999</v>
+        <v>294.86500000000001</v>
       </c>
       <c r="U8">
-        <v>7.7450000000000001</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="V8">
-        <v>80.641000000000005</v>
+        <v>15.252000000000001</v>
       </c>
       <c r="W8">
-        <v>-1.421</v>
+        <v>-0.76600000000000001</v>
       </c>
       <c r="X8">
-        <v>-60.372</v>
+        <v>66.085999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AA8">
-        <v>54.920999999999999</v>
+        <v>13.361000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41121</v>
+        <v>37560</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>66.875</v>
+        <v>16.190999999999999</v>
       </c>
       <c r="D9">
-        <v>378.18599999999998</v>
+        <v>94.721000000000004</v>
       </c>
       <c r="E9">
-        <v>228.59299999999999</v>
+        <v>74.545000000000002</v>
       </c>
       <c r="F9">
-        <v>240.09700000000001</v>
+        <v>62.125</v>
       </c>
       <c r="G9">
-        <v>628.10599999999999</v>
+        <v>198.91</v>
       </c>
       <c r="H9">
-        <v>2883.9180000000001</v>
+        <v>571.11500000000001</v>
       </c>
       <c r="I9">
-        <v>66.251000000000005</v>
+        <v>15.212</v>
       </c>
       <c r="J9">
-        <v>454.22500000000002</v>
+        <v>127.318</v>
       </c>
       <c r="K9">
-        <v>30.158000000000001</v>
+        <v>2.5190000000000001</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>232.07499999999999</v>
+        <v>126.681</v>
       </c>
       <c r="O9">
-        <v>787.27200000000005</v>
+        <v>259.673</v>
       </c>
       <c r="P9">
-        <v>484.38299999999998</v>
+        <v>163.65100000000001</v>
       </c>
       <c r="Q9">
-        <v>4.9870000000000001</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="R9">
-        <v>41121</v>
+        <v>37560</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="T9">
-        <v>2096.6460000000002</v>
+        <v>311.44200000000001</v>
       </c>
       <c r="U9">
-        <v>12.731999999999999</v>
+        <v>10.255000000000001</v>
       </c>
       <c r="V9">
-        <v>78.113</v>
+        <v>16.013000000000002</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>94.378</v>
+        <v>-2.82</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,208 +1512,208 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>66.875</v>
+        <v>16.190999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41213</v>
+        <v>37652</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>71.92</v>
+        <v>13.855</v>
       </c>
       <c r="D10">
-        <v>396.30099999999999</v>
+        <v>94.013999999999996</v>
       </c>
       <c r="E10">
-        <v>234.297</v>
+        <v>83.885999999999996</v>
       </c>
       <c r="F10">
-        <v>252.76400000000001</v>
+        <v>59.366999999999997</v>
       </c>
       <c r="G10">
-        <v>657.86</v>
+        <v>214.16499999999999</v>
       </c>
       <c r="H10">
-        <v>2941.384</v>
+        <v>596.96799999999996</v>
       </c>
       <c r="I10">
-        <v>85.055999999999997</v>
+        <v>14.287000000000001</v>
       </c>
       <c r="J10">
-        <v>352.322</v>
+        <v>158.96299999999999</v>
       </c>
       <c r="K10">
-        <v>25.283999999999999</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-1.248</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-10.212999999999999</v>
       </c>
       <c r="N10">
-        <v>262.55200000000002</v>
+        <v>102.601</v>
       </c>
       <c r="O10">
-        <v>728.226</v>
+        <v>264.03300000000002</v>
       </c>
       <c r="P10">
-        <v>377.60599999999999</v>
+        <v>176.35499999999999</v>
       </c>
       <c r="Q10">
-        <v>0.108</v>
+        <v>-1.2010000000000001</v>
       </c>
       <c r="R10">
-        <v>41213</v>
+        <v>37652</v>
       </c>
       <c r="S10">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>2213.1579999999999</v>
+        <v>332.935</v>
       </c>
       <c r="U10">
-        <v>12.84</v>
+        <v>9.0540000000000003</v>
       </c>
       <c r="V10">
-        <v>114.81699999999999</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="W10">
-        <v>-1.4359999999999999</v>
+        <v>-0.92700000000000005</v>
       </c>
       <c r="X10">
-        <v>-82.251999999999995</v>
+        <v>33.668999999999997</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="AA10">
-        <v>71.92</v>
+        <v>13.855</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41305</v>
+        <v>37741</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>74.667000000000002</v>
+        <v>15.211</v>
       </c>
       <c r="D11">
-        <v>379.63900000000001</v>
+        <v>96.367999999999995</v>
       </c>
       <c r="E11">
-        <v>241.16800000000001</v>
+        <v>76.792000000000002</v>
       </c>
       <c r="F11">
-        <v>240.49799999999999</v>
+        <v>62.42</v>
       </c>
       <c r="G11">
-        <v>680.84799999999996</v>
+        <v>210.56299999999999</v>
       </c>
       <c r="H11">
-        <v>2969.5439999999999</v>
+        <v>600.16499999999996</v>
       </c>
       <c r="I11">
-        <v>61.92</v>
+        <v>15.481</v>
       </c>
       <c r="J11">
-        <v>377.512</v>
+        <v>141.94200000000001</v>
       </c>
       <c r="K11">
-        <v>30.459</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-311.16899999999998</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>226.13200000000001</v>
+        <v>103.64700000000001</v>
       </c>
       <c r="O11">
-        <v>719.99599999999998</v>
+        <v>247.02099999999999</v>
       </c>
       <c r="P11">
-        <v>411.27100000000002</v>
+        <v>162.578</v>
       </c>
       <c r="Q11">
-        <v>1.605</v>
+        <v>2.8410000000000002</v>
       </c>
       <c r="R11">
-        <v>41305</v>
+        <v>37741</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2249.5479999999998</v>
+        <v>353.14400000000001</v>
       </c>
       <c r="U11">
-        <v>14.445</v>
+        <v>11.895</v>
       </c>
       <c r="V11">
-        <v>47.622999999999998</v>
+        <v>27.030999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-14.125</v>
+        <v>-10.747</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AA11">
-        <v>74.667000000000002</v>
+        <v>15.211</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41394</v>
+        <v>37833</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>75.135999999999996</v>
+        <v>18.663</v>
       </c>
       <c r="D12">
-        <v>383.34100000000001</v>
+        <v>108.44199999999999</v>
       </c>
       <c r="E12">
-        <v>224.489</v>
+        <v>80.006</v>
       </c>
       <c r="F12">
-        <v>254.179</v>
+        <v>68.632000000000005</v>
       </c>
       <c r="G12">
-        <v>675.78800000000001</v>
+        <v>235.03299999999999</v>
       </c>
       <c r="H12">
-        <v>2966.732</v>
+        <v>657.10900000000004</v>
       </c>
       <c r="I12">
-        <v>73.778999999999996</v>
+        <v>13.692</v>
       </c>
       <c r="J12">
-        <v>291.54899999999998</v>
+        <v>169.05500000000001</v>
       </c>
       <c r="K12">
-        <v>28.954999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>228.91900000000001</v>
+        <v>109.306</v>
       </c>
       <c r="O12">
-        <v>630.23599999999999</v>
+        <v>279.88200000000001</v>
       </c>
       <c r="P12">
-        <v>323.404</v>
+        <v>191.79900000000001</v>
       </c>
       <c r="Q12">
-        <v>-4.0000000000000001E-3</v>
+        <v>18.902999999999999</v>
       </c>
       <c r="R12">
-        <v>41394</v>
+        <v>37833</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2336.4960000000001</v>
+        <v>377.22699999999998</v>
       </c>
       <c r="U12">
-        <v>14.441000000000001</v>
+        <v>30.797999999999998</v>
       </c>
       <c r="V12">
-        <v>114.90300000000001</v>
+        <v>18.004000000000001</v>
       </c>
       <c r="W12">
-        <v>-1.4490000000000001</v>
+        <v>-1.0249999999999999</v>
       </c>
       <c r="X12">
-        <v>-72.200999999999993</v>
+        <v>35.445</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AA12">
-        <v>75.135999999999996</v>
+        <v>18.663</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41486</v>
+        <v>37925</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>88.950999999999993</v>
+        <v>21.041</v>
       </c>
       <c r="D13">
-        <v>411.29300000000001</v>
+        <v>112.96599999999999</v>
       </c>
       <c r="E13">
-        <v>247.29599999999999</v>
+        <v>84.606999999999999</v>
       </c>
       <c r="F13">
-        <v>268.274</v>
+        <v>74.783000000000001</v>
       </c>
       <c r="G13">
-        <v>706.00699999999995</v>
+        <v>264.22399999999999</v>
       </c>
       <c r="H13">
-        <v>3006.9079999999999</v>
+        <v>705.56399999999996</v>
       </c>
       <c r="I13">
-        <v>76.570999999999998</v>
+        <v>16.227</v>
       </c>
       <c r="J13">
-        <v>215.291</v>
+        <v>165.203</v>
       </c>
       <c r="K13">
-        <v>28.338000000000001</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,247 +1805,247 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>249.286</v>
+        <v>115.423</v>
       </c>
       <c r="O13">
-        <v>569.26599999999996</v>
+        <v>283.517</v>
       </c>
       <c r="P13">
-        <v>245.82900000000001</v>
+        <v>185.86099999999999</v>
       </c>
       <c r="Q13">
-        <v>11.041</v>
+        <v>16.635000000000002</v>
       </c>
       <c r="R13">
-        <v>41486</v>
+        <v>37925</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="T13">
-        <v>2437.6419999999998</v>
+        <v>422.04700000000003</v>
       </c>
       <c r="U13">
-        <v>25.481999999999999</v>
+        <v>47.433</v>
       </c>
       <c r="V13">
-        <v>103.05800000000001</v>
+        <v>31.408999999999999</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-51.813000000000002</v>
+        <v>6.2370000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1.6160000000000001</v>
       </c>
       <c r="AA13">
-        <v>88.950999999999993</v>
+        <v>21.041</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41578</v>
+        <v>38017</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>57.396999999999998</v>
+        <v>18.355</v>
       </c>
       <c r="D14">
-        <v>411.05200000000002</v>
+        <v>109.73399999999999</v>
       </c>
       <c r="E14">
-        <v>229.53700000000001</v>
+        <v>86.078000000000003</v>
       </c>
       <c r="F14">
-        <v>263.858</v>
+        <v>69.956000000000003</v>
       </c>
       <c r="G14">
-        <v>747.24099999999999</v>
+        <v>275.83600000000001</v>
       </c>
       <c r="H14">
-        <v>3137.261</v>
+        <v>725.53700000000003</v>
       </c>
       <c r="I14">
-        <v>108.172</v>
+        <v>14.404</v>
       </c>
       <c r="J14">
-        <v>303.37</v>
+        <v>160.01</v>
       </c>
       <c r="K14">
-        <v>42.987000000000002</v>
+        <v>1.347</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-5.2759999999999998</v>
       </c>
       <c r="N14">
-        <v>321.25299999999999</v>
+        <v>106.49</v>
       </c>
       <c r="O14">
-        <v>713.76700000000005</v>
+        <v>266.5</v>
       </c>
       <c r="P14">
-        <v>346.35700000000003</v>
+        <v>182.05600000000001</v>
       </c>
       <c r="Q14">
-        <v>51.911000000000001</v>
+        <v>-2.109</v>
       </c>
       <c r="R14">
-        <v>41578</v>
+        <v>38017</v>
       </c>
       <c r="S14">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2423.4940000000001</v>
+        <v>459.03699999999998</v>
       </c>
       <c r="U14">
-        <v>77.393000000000001</v>
+        <v>45.323999999999998</v>
       </c>
       <c r="V14">
-        <v>150.34100000000001</v>
+        <v>6.8090000000000002</v>
       </c>
       <c r="W14">
-        <v>-1.4690000000000001</v>
+        <v>-0.96299999999999997</v>
       </c>
       <c r="X14">
-        <v>-23.457999999999998</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>2.145</v>
       </c>
       <c r="AA14">
-        <v>57.396999999999998</v>
+        <v>18.355</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41670</v>
+        <v>38107</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>71.843000000000004</v>
+        <v>21.699000000000002</v>
       </c>
       <c r="D15">
-        <v>404.98</v>
+        <v>120.55200000000001</v>
       </c>
       <c r="E15">
-        <v>235.28800000000001</v>
+        <v>84.682000000000002</v>
       </c>
       <c r="F15">
-        <v>262.92899999999997</v>
+        <v>78.385000000000005</v>
       </c>
       <c r="G15">
-        <v>701.09400000000005</v>
+        <v>254.251</v>
       </c>
       <c r="H15">
-        <v>3114.7550000000001</v>
+        <v>744.75300000000004</v>
       </c>
       <c r="I15">
-        <v>74.77</v>
+        <v>13.657999999999999</v>
       </c>
       <c r="J15">
-        <v>302.68900000000002</v>
+        <v>154.87200000000001</v>
       </c>
       <c r="K15">
-        <v>44.146999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
-        <v>-0.53400000000000003</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-486.9</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>268.30700000000002</v>
+        <v>113.468</v>
       </c>
       <c r="O15">
-        <v>660.846</v>
+        <v>268.33999999999997</v>
       </c>
       <c r="P15">
-        <v>346.83600000000001</v>
+        <v>178.749</v>
       </c>
       <c r="Q15">
-        <v>-48.564999999999998</v>
+        <v>-24.593</v>
       </c>
       <c r="R15">
-        <v>41670</v>
+        <v>38107</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2453.9090000000001</v>
+        <v>476.41300000000001</v>
       </c>
       <c r="U15">
-        <v>28.827999999999999</v>
+        <v>20.731000000000002</v>
       </c>
       <c r="V15">
-        <v>68.573999999999998</v>
+        <v>30.05</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-58.584000000000003</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1.665</v>
       </c>
       <c r="AA15">
-        <v>71.843000000000004</v>
+        <v>21.699000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41759</v>
+        <v>38199</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>79.16</v>
+        <v>24.047999999999998</v>
       </c>
       <c r="D16">
-        <v>412.31700000000001</v>
+        <v>129.07900000000001</v>
       </c>
       <c r="E16">
-        <v>239.76900000000001</v>
+        <v>92.301000000000002</v>
       </c>
       <c r="F16">
-        <v>268.49900000000002</v>
+        <v>83.134</v>
       </c>
       <c r="G16">
-        <v>764.68</v>
+        <v>267.45299999999997</v>
       </c>
       <c r="H16">
-        <v>3221.982</v>
+        <v>772.19299999999998</v>
       </c>
       <c r="I16">
-        <v>86.248000000000005</v>
+        <v>15.624000000000001</v>
       </c>
       <c r="J16">
-        <v>302.20800000000003</v>
+        <v>149.74600000000001</v>
       </c>
       <c r="K16">
-        <v>33.915999999999997</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>264.666</v>
+        <v>114.127</v>
       </c>
       <c r="O16">
-        <v>659.90200000000004</v>
+        <v>263.87299999999999</v>
       </c>
       <c r="P16">
-        <v>336.12400000000002</v>
+        <v>170.428</v>
       </c>
       <c r="Q16">
-        <v>53.831000000000003</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="R16">
-        <v>41759</v>
+        <v>38199</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2562.08</v>
+        <v>508.32</v>
       </c>
       <c r="U16">
-        <v>82.659000000000006</v>
+        <v>26.074999999999999</v>
       </c>
       <c r="V16">
-        <v>126.33199999999999</v>
+        <v>29.103999999999999</v>
       </c>
       <c r="W16">
-        <v>-1.4359999999999999</v>
+        <v>-0.98099999999999998</v>
       </c>
       <c r="X16">
-        <v>-11.545</v>
+        <v>-8.1829999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>79.16</v>
+        <v>24.047999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41851</v>
+        <v>38291</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>88.066999999999993</v>
+        <v>28.722999999999999</v>
       </c>
       <c r="D17">
-        <v>432.48200000000003</v>
+        <v>130.81100000000001</v>
       </c>
       <c r="E17">
-        <v>261.964</v>
+        <v>99.269000000000005</v>
       </c>
       <c r="F17">
-        <v>280.58999999999997</v>
+        <v>84.355000000000004</v>
       </c>
       <c r="G17">
-        <v>895.81299999999999</v>
+        <v>304.49799999999999</v>
       </c>
       <c r="H17">
-        <v>3367.3739999999998</v>
+        <v>811.56100000000004</v>
       </c>
       <c r="I17">
-        <v>87.209000000000003</v>
+        <v>21.684000000000001</v>
       </c>
       <c r="J17">
-        <v>301.74900000000002</v>
+        <v>144.86500000000001</v>
       </c>
       <c r="K17">
-        <v>46.491999999999997</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>297.68700000000001</v>
+        <v>111.589</v>
       </c>
       <c r="O17">
-        <v>691.09699999999998</v>
+        <v>267.39999999999998</v>
       </c>
       <c r="P17">
-        <v>348.24099999999999</v>
+        <v>165.73599999999999</v>
       </c>
       <c r="Q17">
-        <v>91.126999999999995</v>
+        <v>13.292999999999999</v>
       </c>
       <c r="R17">
-        <v>41851</v>
+        <v>38291</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="T17">
-        <v>2676.277</v>
+        <v>544.16099999999994</v>
       </c>
       <c r="U17">
-        <v>173.786</v>
+        <v>39.368000000000002</v>
       </c>
       <c r="V17">
-        <v>107.861</v>
+        <v>35.234999999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>40.043999999999997</v>
+        <v>-3.0430000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,164 +2176,164 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>88.066999999999993</v>
+        <v>28.722999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41943</v>
+        <v>38383</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>30.786000000000001</v>
+        <v>17.709</v>
       </c>
       <c r="D18">
-        <v>467.99700000000001</v>
+        <v>147.55000000000001</v>
       </c>
       <c r="E18">
-        <v>276.27999999999997</v>
+        <v>144.96799999999999</v>
       </c>
       <c r="F18">
-        <v>296.05200000000002</v>
+        <v>92.117999999999995</v>
       </c>
       <c r="G18">
-        <v>791.61699999999996</v>
+        <v>438.76299999999998</v>
       </c>
       <c r="H18">
-        <v>4458.34</v>
+        <v>2145.904</v>
       </c>
       <c r="I18">
-        <v>116.35299999999999</v>
+        <v>28.529</v>
       </c>
       <c r="J18">
-        <v>1280.8330000000001</v>
+        <v>720.99099999999999</v>
       </c>
       <c r="K18">
-        <v>101.518</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-98.424999999999997</v>
       </c>
       <c r="N18">
-        <v>442.18200000000002</v>
+        <v>196.58699999999999</v>
       </c>
       <c r="O18">
-        <v>1869.9</v>
+        <v>942.19899999999996</v>
       </c>
       <c r="P18">
-        <v>1382.3510000000001</v>
+        <v>742.43</v>
       </c>
       <c r="Q18">
-        <v>-148.56399999999999</v>
+        <v>-10.874000000000001</v>
       </c>
       <c r="R18">
-        <v>41943</v>
+        <v>38383</v>
       </c>
       <c r="S18">
-        <v>9460</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>2588.44</v>
+        <v>1203.7049999999999</v>
       </c>
       <c r="U18">
-        <v>25.222000000000001</v>
+        <v>28.494</v>
       </c>
       <c r="V18">
-        <v>152.05600000000001</v>
+        <v>35.807000000000002</v>
       </c>
       <c r="W18">
-        <v>-1.448</v>
+        <v>-0.98299999999999998</v>
       </c>
       <c r="X18">
-        <v>872.25</v>
+        <v>578.62400000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1.7789999999999999</v>
       </c>
       <c r="AA18">
-        <v>30.786000000000001</v>
+        <v>17.709</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42035</v>
+        <v>38472</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>61.179000000000002</v>
+        <v>27.827000000000002</v>
       </c>
       <c r="D19">
-        <v>445.17099999999999</v>
+        <v>215.494</v>
       </c>
       <c r="E19">
-        <v>275.899</v>
+        <v>155.16800000000001</v>
       </c>
       <c r="F19">
-        <v>285.05099999999999</v>
+        <v>139.10900000000001</v>
       </c>
       <c r="G19">
-        <v>787.10900000000004</v>
+        <v>434.81799999999998</v>
       </c>
       <c r="H19">
-        <v>4335.7439999999997</v>
+        <v>2160.13</v>
       </c>
       <c r="I19">
-        <v>87.335999999999999</v>
+        <v>36.857999999999997</v>
       </c>
       <c r="J19">
-        <v>1302.5419999999999</v>
+        <v>687.48500000000001</v>
       </c>
       <c r="K19">
-        <v>92.795000000000002</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-10.683999999999999</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-218.8</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>382.57900000000001</v>
+        <v>214.18899999999999</v>
       </c>
       <c r="O19">
-        <v>1818.759</v>
+        <v>923.41399999999999</v>
       </c>
       <c r="P19">
-        <v>1395.337</v>
+        <v>717.36099999999999</v>
       </c>
       <c r="Q19">
-        <v>-8.7940000000000005</v>
+        <v>-11.375</v>
       </c>
       <c r="R19">
-        <v>42035</v>
+        <v>38472</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2516.9850000000001</v>
+        <v>1236.7159999999999</v>
       </c>
       <c r="U19">
-        <v>16.428000000000001</v>
+        <v>17.119</v>
       </c>
       <c r="V19">
-        <v>79.840999999999994</v>
+        <v>42.875999999999998</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-20.247</v>
+        <v>-19.623999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>61.179000000000002</v>
+        <v>27.827000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42124</v>
+        <v>38564</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>60.713000000000001</v>
+        <v>37.619</v>
       </c>
       <c r="D20">
-        <v>434.67599999999999</v>
+        <v>222.93199999999999</v>
       </c>
       <c r="E20">
-        <v>267.18299999999999</v>
+        <v>165.48699999999999</v>
       </c>
       <c r="F20">
-        <v>272.916</v>
+        <v>147.22900000000001</v>
       </c>
       <c r="G20">
-        <v>799.96600000000001</v>
+        <v>440.43099999999998</v>
       </c>
       <c r="H20">
-        <v>4392.66</v>
+        <v>2167.3420000000001</v>
       </c>
       <c r="I20">
-        <v>100.545</v>
+        <v>31.869</v>
       </c>
       <c r="J20">
-        <v>1105.5440000000001</v>
+        <v>676.06799999999998</v>
       </c>
       <c r="K20">
-        <v>242.16499999999999</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>535.64200000000005</v>
+        <v>211.36199999999999</v>
       </c>
       <c r="O20">
-        <v>1776.923</v>
+        <v>913.13400000000001</v>
       </c>
       <c r="P20">
-        <v>1347.7090000000001</v>
+        <v>718.577</v>
       </c>
       <c r="Q20">
-        <v>1.4830000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="R20">
-        <v>42124</v>
+        <v>38564</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2615.7370000000001</v>
+        <v>1254.2080000000001</v>
       </c>
       <c r="U20">
-        <v>17.911000000000001</v>
+        <v>18.048999999999999</v>
       </c>
       <c r="V20">
-        <v>110.64</v>
+        <v>40.616</v>
       </c>
       <c r="W20">
-        <v>-1.448</v>
+        <v>-1.323</v>
       </c>
       <c r="X20">
-        <v>-54.243000000000002</v>
+        <v>1.079</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>60.713000000000001</v>
+        <v>37.619</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42216</v>
+        <v>38656</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>44.951999999999998</v>
+        <v>8.5670000000000002</v>
       </c>
       <c r="D21">
-        <v>461.678</v>
+        <v>220.64099999999999</v>
       </c>
       <c r="E21">
-        <v>280.16000000000003</v>
+        <v>152.61000000000001</v>
       </c>
       <c r="F21">
-        <v>285.78699999999998</v>
+        <v>138.07599999999999</v>
       </c>
       <c r="G21">
-        <v>814.69200000000001</v>
+        <v>443.714</v>
       </c>
       <c r="H21">
-        <v>4422.6819999999998</v>
+        <v>2179.83</v>
       </c>
       <c r="I21">
-        <v>114.479</v>
+        <v>36.042000000000002</v>
       </c>
       <c r="J21">
-        <v>1070.299</v>
+        <v>632.65200000000004</v>
       </c>
       <c r="K21">
-        <v>237.55799999999999</v>
+        <v>33.981000000000002</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>529.58699999999999</v>
+        <v>257.62200000000001</v>
       </c>
       <c r="O21">
-        <v>1728.7470000000001</v>
+        <v>906.60500000000002</v>
       </c>
       <c r="P21">
-        <v>1307.857</v>
+        <v>704.91200000000003</v>
       </c>
       <c r="Q21">
-        <v>-0.90600000000000003</v>
+        <v>12.776999999999999</v>
       </c>
       <c r="R21">
-        <v>42216</v>
+        <v>38656</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>7034</v>
       </c>
       <c r="T21">
-        <v>2693.9349999999999</v>
+        <v>1273.2249999999999</v>
       </c>
       <c r="U21">
-        <v>17.004999999999999</v>
+        <v>30.826000000000001</v>
       </c>
       <c r="V21">
-        <v>95.968000000000004</v>
+        <v>64.543999999999997</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-29.681999999999999</v>
+        <v>-8.2899999999999991</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,81 +2508,81 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>44.951000000000001</v>
+        <v>8.5670000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42308</v>
+        <v>38748</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>36.679000000000002</v>
+        <v>17.954000000000001</v>
       </c>
       <c r="D22">
-        <v>455.536</v>
+        <v>205.739</v>
       </c>
       <c r="E22">
-        <v>282.91800000000001</v>
+        <v>155.001</v>
       </c>
       <c r="F22">
-        <v>288.608</v>
+        <v>129.161</v>
       </c>
       <c r="G22">
-        <v>841.428</v>
+        <v>449.34300000000002</v>
       </c>
       <c r="H22">
-        <v>4459.8639999999996</v>
+        <v>2268.2579999999998</v>
       </c>
       <c r="I22">
-        <v>116.91200000000001</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="J22">
-        <v>1105.4079999999999</v>
+        <v>727.23400000000004</v>
       </c>
       <c r="K22">
-        <v>240.40299999999999</v>
+        <v>38.164000000000001</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-557.11</v>
       </c>
       <c r="N22">
-        <v>568.78200000000004</v>
+        <v>224.935</v>
       </c>
       <c r="O22">
-        <v>1785.96</v>
+        <v>967.59400000000005</v>
       </c>
       <c r="P22">
-        <v>1349.211</v>
+        <v>765.77099999999996</v>
       </c>
       <c r="Q22">
-        <v>-0.57899999999999996</v>
+        <v>-6.2290000000000001</v>
       </c>
       <c r="R22">
-        <v>42308</v>
+        <v>38748</v>
       </c>
       <c r="S22">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2673.904</v>
+        <v>1300.664</v>
       </c>
       <c r="U22">
-        <v>16.425999999999998</v>
+        <v>24.597000000000001</v>
       </c>
       <c r="V22">
-        <v>104.521</v>
+        <v>29.295999999999999</v>
       </c>
       <c r="W22">
-        <v>-1.458</v>
+        <v>-1.335</v>
       </c>
       <c r="X22">
-        <v>-2.5049999999999999</v>
+        <v>61.406999999999996</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>36.679000000000002</v>
+        <v>17.954000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42400</v>
+        <v>38837</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>51.4</v>
+        <v>13.701000000000001</v>
       </c>
       <c r="D23">
-        <v>449.6</v>
+        <v>211.39699999999999</v>
       </c>
       <c r="E23">
-        <v>278.89100000000002</v>
+        <v>148.22999999999999</v>
       </c>
       <c r="F23">
-        <v>273.7</v>
+        <v>131.363</v>
       </c>
       <c r="G23">
-        <v>844.50400000000002</v>
+        <v>440.50099999999998</v>
       </c>
       <c r="H23">
-        <v>4401.8019999999997</v>
+        <v>2290.8249999999998</v>
       </c>
       <c r="I23">
-        <v>116.43</v>
+        <v>46.006999999999998</v>
       </c>
       <c r="J23">
-        <v>1330.627</v>
+        <v>698.18700000000001</v>
       </c>
       <c r="K23">
-        <v>39.6</v>
+        <v>45.753</v>
       </c>
       <c r="L23">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-338.5</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>347.96899999999999</v>
+        <v>243.81</v>
       </c>
       <c r="O23">
-        <v>1795.076</v>
+        <v>960.49900000000002</v>
       </c>
       <c r="P23">
-        <v>1377.3230000000001</v>
+        <v>756.80700000000002</v>
       </c>
       <c r="Q23">
-        <v>-0.4</v>
+        <v>-8.0419999999999998</v>
       </c>
       <c r="R23">
-        <v>42400</v>
+        <v>38837</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2606.7260000000001</v>
+        <v>1330.326</v>
       </c>
       <c r="U23">
-        <v>16.047000000000001</v>
+        <v>16.555</v>
       </c>
       <c r="V23">
-        <v>89.5</v>
+        <v>47.067999999999998</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>17.8</v>
+        <v>-7.5350000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>51.4</v>
+        <v>13.701000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42490</v>
+        <v>38929</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>74.099999999999994</v>
+        <v>20.977</v>
       </c>
       <c r="D24">
-        <v>483.8</v>
+        <v>225.798</v>
       </c>
       <c r="E24">
-        <v>298.82499999999999</v>
+        <v>149.923</v>
       </c>
       <c r="F24">
-        <v>304.3</v>
+        <v>137.761</v>
       </c>
       <c r="G24">
-        <v>915.11500000000001</v>
+        <v>456.23200000000003</v>
       </c>
       <c r="H24">
-        <v>4601.2529999999997</v>
+        <v>2328.5039999999999</v>
       </c>
       <c r="I24">
-        <v>105.759</v>
+        <v>54.781999999999996</v>
       </c>
       <c r="J24">
-        <v>1411.182</v>
+        <v>698.44299999999998</v>
       </c>
       <c r="K24">
-        <v>30.190999999999999</v>
+        <v>35.204999999999998</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>322.21699999999998</v>
+        <v>253.06299999999999</v>
       </c>
       <c r="O24">
-        <v>1856.472</v>
+        <v>971.81</v>
       </c>
       <c r="P24">
-        <v>1441.373</v>
+        <v>759.01599999999996</v>
       </c>
       <c r="Q24">
-        <v>28.5</v>
+        <v>-3.831</v>
       </c>
       <c r="R24">
-        <v>42490</v>
+        <v>38929</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2744.7809999999999</v>
+        <v>1356.694</v>
       </c>
       <c r="U24">
-        <v>44.463999999999999</v>
+        <v>12.724</v>
       </c>
       <c r="V24">
-        <v>97.9</v>
+        <v>38.494999999999997</v>
       </c>
       <c r="W24">
-        <v>-1.5</v>
+        <v>-1.3360000000000001</v>
       </c>
       <c r="X24">
-        <v>54.7</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>74.099999999999994</v>
+        <v>20.977</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42582</v>
+        <v>39021</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>87.9</v>
+        <v>13.602</v>
       </c>
       <c r="D25">
-        <v>514.70000000000005</v>
+        <v>216.02600000000001</v>
       </c>
       <c r="E25">
-        <v>307.34100000000001</v>
+        <v>146.584</v>
       </c>
       <c r="F25">
-        <v>326</v>
+        <v>133.19200000000001</v>
       </c>
       <c r="G25">
-        <v>929.63900000000001</v>
+        <v>456.95100000000002</v>
       </c>
       <c r="H25">
-        <v>4592.6750000000002</v>
+        <v>2352.6010000000001</v>
       </c>
       <c r="I25">
-        <v>87.688000000000002</v>
+        <v>66.08</v>
       </c>
       <c r="J25">
-        <v>1412.374</v>
+        <v>681.28599999999994</v>
       </c>
       <c r="K25">
-        <v>33.192</v>
+        <v>23.515999999999998</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>320.24099999999999</v>
+        <v>276.63</v>
       </c>
       <c r="O25">
-        <v>1855.2729999999999</v>
+        <v>974.09199999999998</v>
       </c>
       <c r="P25">
-        <v>1444.066</v>
+        <v>742.65200000000004</v>
       </c>
       <c r="Q25">
-        <v>18.100000000000001</v>
+        <v>-4.5</v>
       </c>
       <c r="R25">
-        <v>42582</v>
+        <v>39021</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="T25">
-        <v>2737.402</v>
+        <v>1378.509</v>
       </c>
       <c r="U25">
-        <v>62.613</v>
+        <v>8.2240000000000002</v>
       </c>
       <c r="V25">
-        <v>128.9</v>
+        <v>35.65</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>29</v>
+        <v>-17.082999999999998</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,81 +2840,81 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>87.9</v>
+        <v>13.602</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42674</v>
+        <v>39113</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>60.5</v>
+        <v>5.3479999999999999</v>
       </c>
       <c r="D26">
-        <v>518.6</v>
+        <v>219.42</v>
       </c>
       <c r="E26">
-        <v>291.39999999999998</v>
+        <v>156.815</v>
       </c>
       <c r="F26">
-        <v>333.3</v>
+        <v>129.91200000000001</v>
       </c>
       <c r="G26">
-        <v>937.1</v>
+        <v>494.19900000000001</v>
       </c>
       <c r="H26">
-        <v>4478.6000000000004</v>
+        <v>2468.9960000000001</v>
       </c>
       <c r="I26">
-        <v>107.4</v>
+        <v>50.4</v>
       </c>
       <c r="J26">
-        <v>1107.4000000000001</v>
+        <v>817.51900000000001</v>
       </c>
       <c r="K26">
-        <v>17.100000000000001</v>
+        <v>36.125999999999998</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-756.43700000000001</v>
       </c>
       <c r="N26">
-        <v>543.20000000000005</v>
+        <v>230.40100000000001</v>
       </c>
       <c r="O26">
-        <v>1782.7</v>
+        <v>1066.3530000000001</v>
       </c>
       <c r="P26">
-        <v>1333.7</v>
+        <v>853.66099999999994</v>
       </c>
       <c r="Q26">
-        <v>38.200000000000003</v>
+        <v>15.32</v>
       </c>
       <c r="R26">
-        <v>42674</v>
+        <v>39113</v>
       </c>
       <c r="S26">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>2695.9</v>
+        <v>1402.643</v>
       </c>
       <c r="U26">
-        <v>100.8</v>
+        <v>23.544</v>
       </c>
       <c r="V26">
-        <v>193.3</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="W26">
-        <v>-1.4</v>
+        <v>-1.337</v>
       </c>
       <c r="X26">
-        <v>-102.9</v>
+        <v>98.56</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>60.5</v>
+        <v>5.3479999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42766</v>
+        <v>39202</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>75.8</v>
+        <v>-0.52700000000000002</v>
       </c>
       <c r="D27">
-        <v>499.1</v>
+        <v>225.535</v>
       </c>
       <c r="E27">
-        <v>290.89999999999998</v>
+        <v>156.77199999999999</v>
       </c>
       <c r="F27">
-        <v>312.39999999999998</v>
+        <v>126.456</v>
       </c>
       <c r="G27">
-        <v>883.9</v>
+        <v>498.54300000000001</v>
       </c>
       <c r="H27">
-        <v>4656.7</v>
+        <v>2509.7489999999998</v>
       </c>
       <c r="I27">
-        <v>100.3</v>
+        <v>52.433999999999997</v>
       </c>
       <c r="J27">
-        <v>1201</v>
+        <v>817.44600000000003</v>
       </c>
       <c r="K27">
-        <v>10.3</v>
+        <v>48.417000000000002</v>
       </c>
       <c r="L27">
-        <v>-5.9</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-169.1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>517.9</v>
+        <v>256.58499999999998</v>
       </c>
       <c r="O27">
-        <v>1837.3</v>
+        <v>1092.009</v>
       </c>
       <c r="P27">
-        <v>1424.5</v>
+        <v>865.86300000000006</v>
       </c>
       <c r="Q27">
-        <v>-9.6999999999999993</v>
+        <v>-11.510999999999999</v>
       </c>
       <c r="R27">
-        <v>42766</v>
+        <v>39202</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2819.4</v>
+        <v>1417.74</v>
       </c>
       <c r="U27">
-        <v>91.1</v>
+        <v>12.032999999999999</v>
       </c>
       <c r="V27">
-        <v>108.4</v>
+        <v>47.673000000000002</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>83.5</v>
+        <v>15.323</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>75.8</v>
+        <v>-0.52700000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42855</v>
+        <v>39294</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>104.9</v>
+        <v>8.18</v>
       </c>
       <c r="D28">
-        <v>522.4</v>
+        <v>251.86199999999999</v>
       </c>
       <c r="E28">
-        <v>311.2</v>
+        <v>164.33199999999999</v>
       </c>
       <c r="F28">
-        <v>343.9</v>
+        <v>145.92400000000001</v>
       </c>
       <c r="G28">
-        <v>958.3</v>
+        <v>511.09699999999998</v>
       </c>
       <c r="H28">
-        <v>4749.8</v>
+        <v>2541.0650000000001</v>
       </c>
       <c r="I28">
-        <v>100.4</v>
+        <v>59.530999999999999</v>
       </c>
       <c r="J28">
-        <v>1345.6</v>
+        <v>807.58</v>
       </c>
       <c r="K28">
-        <v>31.3</v>
+        <v>53.706000000000003</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>343.2</v>
+        <v>284.42200000000003</v>
       </c>
       <c r="O28">
-        <v>1810</v>
+        <v>1105.703</v>
       </c>
       <c r="P28">
-        <v>1386.9</v>
+        <v>861.28599999999994</v>
       </c>
       <c r="Q28">
-        <v>30.2</v>
+        <v>-3.972</v>
       </c>
       <c r="R28">
-        <v>42855</v>
+        <v>39294</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2939.8</v>
+        <v>1435.3620000000001</v>
       </c>
       <c r="U28">
-        <v>121.3</v>
+        <v>8.0609999999999999</v>
       </c>
       <c r="V28">
-        <v>131.69999999999999</v>
+        <v>47.427999999999997</v>
       </c>
       <c r="W28">
-        <v>-1.5</v>
+        <v>-1.3440000000000001</v>
       </c>
       <c r="X28">
-        <v>-73.5</v>
+        <v>-3.9580000000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>104.9</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42947</v>
+        <v>39386</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>103.6</v>
+        <v>-24.193000000000001</v>
       </c>
       <c r="D29">
-        <v>556</v>
+        <v>253.82400000000001</v>
       </c>
       <c r="E29">
-        <v>335.9</v>
+        <v>164.49299999999999</v>
       </c>
       <c r="F29">
-        <v>356.2</v>
+        <v>135.44</v>
       </c>
       <c r="G29">
-        <v>932.1</v>
+        <v>517.52200000000005</v>
       </c>
       <c r="H29">
-        <v>4782.8</v>
+        <v>2596.1689999999999</v>
       </c>
       <c r="I29">
-        <v>112.2</v>
+        <v>61.377000000000002</v>
       </c>
       <c r="J29">
-        <v>1180</v>
+        <v>830.11599999999999</v>
       </c>
       <c r="K29">
-        <v>33.4</v>
+        <v>46.514000000000003</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>371.2</v>
+        <v>286.48</v>
       </c>
       <c r="O29">
-        <v>1689.5</v>
+        <v>1136.682</v>
       </c>
       <c r="P29">
-        <v>1213.4000000000001</v>
+        <v>876.63</v>
       </c>
       <c r="Q29">
-        <v>-75.3</v>
+        <v>-4.835</v>
       </c>
       <c r="R29">
-        <v>42947</v>
+        <v>39386</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="T29">
-        <v>3093.3</v>
+        <v>1459.4870000000001</v>
       </c>
       <c r="U29">
-        <v>46</v>
+        <v>3.226</v>
       </c>
       <c r="V29">
-        <v>154.5</v>
+        <v>38.122</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-170.9</v>
+        <v>15.223000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,81 +3172,81 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>103.6</v>
+        <v>-24.193000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43039</v>
+        <v>39478</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>88.6</v>
+        <v>6.8769999999999998</v>
       </c>
       <c r="D30">
-        <v>561.5</v>
+        <v>242.77199999999999</v>
       </c>
       <c r="E30">
-        <v>316.60000000000002</v>
+        <v>164.167</v>
       </c>
       <c r="F30">
-        <v>364.9</v>
+        <v>142.88200000000001</v>
       </c>
       <c r="G30">
-        <v>953.2</v>
+        <v>526.34</v>
       </c>
       <c r="H30">
-        <v>4858.7</v>
+        <v>2584.942</v>
       </c>
       <c r="I30">
-        <v>142.1</v>
+        <v>54.918999999999997</v>
       </c>
       <c r="J30">
-        <v>1149.3</v>
+        <v>878.25099999999998</v>
       </c>
       <c r="K30">
-        <v>23.4</v>
+        <v>46.857999999999997</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-103.45</v>
       </c>
       <c r="N30">
-        <v>396.1</v>
+        <v>240.07599999999999</v>
       </c>
       <c r="O30">
-        <v>1682.9</v>
+        <v>1171.4079999999999</v>
       </c>
       <c r="P30">
-        <v>1172.7</v>
+        <v>925.10900000000004</v>
       </c>
       <c r="Q30">
-        <v>42.8</v>
+        <v>-0.64</v>
       </c>
       <c r="R30">
-        <v>43039</v>
+        <v>39478</v>
       </c>
       <c r="S30">
-        <v>11800</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>3175.8</v>
+        <v>1413.5340000000001</v>
       </c>
       <c r="U30">
-        <v>88.8</v>
+        <v>2.5859999999999999</v>
       </c>
       <c r="V30">
-        <v>199</v>
+        <v>-5.5919999999999996</v>
       </c>
       <c r="W30">
-        <v>-1.4</v>
+        <v>-1.349</v>
       </c>
       <c r="X30">
-        <v>-67</v>
+        <v>49.417000000000002</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>88.6</v>
+        <v>6.8769999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43131</v>
+        <v>39568</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-122.5</v>
+        <v>11.241</v>
       </c>
       <c r="D31">
-        <v>590</v>
+        <v>259.24799999999999</v>
       </c>
       <c r="E31">
-        <v>413.8</v>
+        <v>176.268</v>
       </c>
       <c r="F31">
-        <v>387.8</v>
+        <v>150.00800000000001</v>
       </c>
       <c r="G31">
-        <v>1175.5</v>
+        <v>556.66600000000005</v>
       </c>
       <c r="H31">
-        <v>6268.6</v>
+        <v>2629.6579999999999</v>
       </c>
       <c r="I31">
-        <v>107.9</v>
+        <v>68.108999999999995</v>
       </c>
       <c r="J31">
-        <v>2372.9</v>
+        <v>901.78700000000003</v>
       </c>
       <c r="K31">
-        <v>29.6</v>
+        <v>39.258000000000003</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-445.8</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>415.7</v>
+        <v>240.78800000000001</v>
       </c>
       <c r="O31">
-        <v>3112.2</v>
+        <v>1195.952</v>
       </c>
       <c r="P31">
-        <v>2402.5</v>
+        <v>941.04499999999996</v>
       </c>
       <c r="Q31">
-        <v>2.9</v>
+        <v>-0.67500000000000004</v>
       </c>
       <c r="R31">
-        <v>43131</v>
+        <v>39568</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3156.4</v>
+        <v>1433.7059999999999</v>
       </c>
       <c r="U31">
-        <v>91.7</v>
+        <v>1.911</v>
       </c>
       <c r="V31">
-        <v>26.2</v>
+        <v>17.084</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>1217.4000000000001</v>
+        <v>17.704000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>-122.5</v>
+        <v>11.241</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43220</v>
+        <v>39660</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>60.9</v>
+        <v>17.879000000000001</v>
       </c>
       <c r="D32">
-        <v>631.29999999999995</v>
+        <v>278.51299999999998</v>
       </c>
       <c r="E32">
-        <v>432.6</v>
+        <v>180.49199999999999</v>
       </c>
       <c r="F32">
-        <v>422.9</v>
+        <v>155.09700000000001</v>
       </c>
       <c r="G32">
-        <v>1272.4000000000001</v>
+        <v>568.66800000000001</v>
       </c>
       <c r="H32">
-        <v>6414.4</v>
+        <v>2675.5259999999998</v>
       </c>
       <c r="I32">
-        <v>153.80000000000001</v>
+        <v>66.040999999999997</v>
       </c>
       <c r="J32">
-        <v>2442.4</v>
+        <v>898.96600000000001</v>
       </c>
       <c r="K32">
-        <v>41.3</v>
+        <v>36.893999999999998</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>460.4</v>
+        <v>239.86799999999999</v>
       </c>
       <c r="O32">
-        <v>3226.4</v>
+        <v>1178.922</v>
       </c>
       <c r="P32">
-        <v>2483.6999999999998</v>
+        <v>935.86</v>
       </c>
       <c r="Q32">
-        <v>73.2</v>
+        <v>1.5269999999999999</v>
       </c>
       <c r="R32">
-        <v>43220</v>
+        <v>39660</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3188</v>
+        <v>1496.604</v>
       </c>
       <c r="U32">
-        <v>164.9</v>
+        <v>3.4380000000000002</v>
       </c>
       <c r="V32">
-        <v>170.9</v>
+        <v>44.029000000000003</v>
       </c>
       <c r="W32">
-        <v>-1.5</v>
+        <v>-1.35</v>
       </c>
       <c r="X32">
-        <v>78.900000000000006</v>
+        <v>-16.492999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>60.9</v>
+        <v>17.879000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43312</v>
+        <v>39752</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>100.8</v>
+        <v>29.478999999999999</v>
       </c>
       <c r="D33">
-        <v>660</v>
+        <v>266.84199999999998</v>
       </c>
       <c r="E33">
-        <v>375.6</v>
+        <v>159.15799999999999</v>
       </c>
       <c r="F33">
-        <v>445</v>
+        <v>162.04400000000001</v>
       </c>
       <c r="G33">
-        <v>1188.8</v>
+        <v>526.03200000000004</v>
       </c>
       <c r="H33">
-        <v>6256.9</v>
+        <v>2587.616</v>
       </c>
       <c r="I33">
-        <v>120.8</v>
+        <v>63.636000000000003</v>
       </c>
       <c r="J33">
-        <v>2248.9</v>
+        <v>861.78099999999995</v>
       </c>
       <c r="K33">
-        <v>45.3</v>
+        <v>43.012999999999998</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>461.4</v>
+        <v>255.40700000000001</v>
       </c>
       <c r="O33">
-        <v>3030.3</v>
+        <v>1170.54</v>
       </c>
       <c r="P33">
-        <v>2294.1999999999998</v>
+        <v>904.79399999999998</v>
       </c>
       <c r="Q33">
-        <v>-9.3000000000000007</v>
+        <v>-1.494</v>
       </c>
       <c r="R33">
-        <v>43312</v>
+        <v>39752</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="T33">
-        <v>3226.6</v>
+        <v>1417.076</v>
       </c>
       <c r="U33">
-        <v>155.6</v>
+        <v>1.944</v>
       </c>
       <c r="V33">
-        <v>235.2</v>
+        <v>41.006999999999998</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-188.6</v>
+        <v>-19.423999999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,81 +3504,81 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>100.8</v>
+        <v>29.478999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43404</v>
+        <v>39844</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>100.7</v>
+        <v>23.873000000000001</v>
       </c>
       <c r="D34">
-        <v>651.5</v>
+        <v>251.142</v>
       </c>
       <c r="E34">
-        <v>374.7</v>
+        <v>158.76400000000001</v>
       </c>
       <c r="F34">
-        <v>406.8</v>
+        <v>142.13499999999999</v>
       </c>
       <c r="G34">
-        <v>1090.9000000000001</v>
+        <v>536.53</v>
       </c>
       <c r="H34">
-        <v>6112.8</v>
+        <v>2551.02</v>
       </c>
       <c r="I34">
-        <v>146.4</v>
+        <v>45.859000000000002</v>
       </c>
       <c r="J34">
-        <v>1985.7</v>
+        <v>887.96699999999998</v>
       </c>
       <c r="K34">
-        <v>37.1</v>
+        <v>41.789000000000001</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-1.224</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-244.86</v>
       </c>
       <c r="N34">
-        <v>536.5</v>
+        <v>253.827</v>
       </c>
       <c r="O34">
-        <v>2805</v>
+        <v>1171.8989999999999</v>
       </c>
       <c r="P34">
-        <v>2022.8</v>
+        <v>929.75599999999997</v>
       </c>
       <c r="Q34">
-        <v>-75.400000000000006</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="R34">
-        <v>43404</v>
+        <v>39844</v>
       </c>
       <c r="S34">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>3307.8</v>
+        <v>1379.1210000000001</v>
       </c>
       <c r="U34">
-        <v>77.7</v>
+        <v>1.885</v>
       </c>
       <c r="V34">
-        <v>236.6</v>
+        <v>24.904</v>
       </c>
       <c r="W34">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-263.3</v>
+        <v>10.538</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,81 +3587,81 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>100.7</v>
+        <v>23.873000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43496</v>
+        <v>39933</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>103.2</v>
+        <v>24.649000000000001</v>
       </c>
       <c r="D35">
-        <v>628.1</v>
+        <v>260.59399999999999</v>
       </c>
       <c r="E35">
-        <v>389.7</v>
+        <v>156.40899999999999</v>
       </c>
       <c r="F35">
-        <v>423.9</v>
+        <v>149.05699999999999</v>
       </c>
       <c r="G35">
-        <v>1193</v>
+        <v>524.53200000000004</v>
       </c>
       <c r="H35">
-        <v>6298.6</v>
+        <v>2546.3310000000001</v>
       </c>
       <c r="I35">
-        <v>129.6</v>
+        <v>47.136000000000003</v>
       </c>
       <c r="J35">
-        <v>1686.9</v>
+        <v>860.97900000000004</v>
       </c>
       <c r="K35">
-        <v>445.5</v>
+        <v>47.213999999999999</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-560.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>938.6</v>
+        <v>212.04</v>
       </c>
       <c r="O35">
-        <v>2873.1</v>
+        <v>1117.77</v>
       </c>
       <c r="P35">
-        <v>2132.4</v>
+        <v>910.79300000000001</v>
       </c>
       <c r="Q35">
-        <v>66.7</v>
+        <v>2.5870000000000002</v>
       </c>
       <c r="R35">
-        <v>43496</v>
+        <v>39933</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3425.5</v>
+        <v>1428.5609999999999</v>
       </c>
       <c r="U35">
-        <v>146.6</v>
+        <v>4.4720000000000004</v>
       </c>
       <c r="V35">
-        <v>101.8</v>
+        <v>43.835000000000001</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>-1.355</v>
       </c>
       <c r="X35">
-        <v>93.2</v>
+        <v>-18.946999999999999</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3550,42 +3670,42 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>103.2</v>
+        <v>24.649000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43585</v>
+        <v>40025</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>122.3</v>
+        <v>21.908000000000001</v>
       </c>
       <c r="D36">
-        <v>654.29999999999995</v>
+        <v>285.23</v>
       </c>
       <c r="E36">
-        <v>396.2</v>
+        <v>170.27600000000001</v>
       </c>
       <c r="F36">
-        <v>440.3</v>
+        <v>150.495</v>
       </c>
       <c r="G36">
-        <v>1136.5999999999999</v>
+        <v>518.01499999999999</v>
       </c>
       <c r="H36">
-        <v>6203.4</v>
+        <v>2581.4349999999999</v>
       </c>
       <c r="I36">
-        <v>129.19999999999999</v>
+        <v>44.872</v>
       </c>
       <c r="J36">
-        <v>1472.3</v>
+        <v>799.8</v>
       </c>
       <c r="K36">
-        <v>454.6</v>
+        <v>38.448</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>940.9</v>
+        <v>212.13300000000001</v>
       </c>
       <c r="O36">
-        <v>2661.2</v>
+        <v>1067.058</v>
       </c>
       <c r="P36">
-        <v>1926.9</v>
+        <v>852.173</v>
       </c>
       <c r="Q36">
-        <v>-42</v>
+        <v>-0.68200000000000005</v>
       </c>
       <c r="R36">
-        <v>43585</v>
+        <v>40025</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3542.2</v>
+        <v>1514.377</v>
       </c>
       <c r="U36">
-        <v>104.6</v>
+        <v>3.79</v>
       </c>
       <c r="V36">
-        <v>214.8</v>
+        <v>75.912999999999997</v>
       </c>
       <c r="W36">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-201.9</v>
+        <v>-56.621000000000002</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>122.4</v>
+        <v>21.908000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43677</v>
+        <v>40117</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>120.2</v>
+        <v>30.117999999999999</v>
       </c>
       <c r="D37">
-        <v>679.4</v>
+        <v>283.45499999999998</v>
       </c>
       <c r="E37">
-        <v>404.7</v>
+        <v>170.941</v>
       </c>
       <c r="F37">
-        <v>457.2</v>
+        <v>159.82400000000001</v>
       </c>
       <c r="G37">
-        <v>1150.8</v>
+        <v>503.87799999999999</v>
       </c>
       <c r="H37">
-        <v>6172.8</v>
+        <v>2551.9070000000002</v>
       </c>
       <c r="I37">
-        <v>141.5</v>
+        <v>36.878</v>
       </c>
       <c r="J37">
-        <v>1422.6</v>
+        <v>770.72299999999996</v>
       </c>
       <c r="K37">
-        <v>390</v>
+        <v>7.0510000000000002</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,247 +3797,247 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>889.4</v>
+        <v>175.41399999999999</v>
       </c>
       <c r="O37">
-        <v>2557.3000000000002</v>
+        <v>1011.5650000000001</v>
       </c>
       <c r="P37">
-        <v>1812.6</v>
+        <v>791.87400000000002</v>
       </c>
       <c r="Q37">
-        <v>8.3000000000000007</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="R37">
-        <v>43677</v>
+        <v>40117</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="T37">
-        <v>3615.5</v>
+        <v>1540.3420000000001</v>
       </c>
       <c r="U37">
-        <v>112.7</v>
+        <v>3.9319999999999999</v>
       </c>
       <c r="V37">
-        <v>196.7</v>
+        <v>78.475999999999999</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>-1.357</v>
       </c>
       <c r="X37">
-        <v>-103.6</v>
+        <v>-57.709000000000003</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>7.2069999999999999</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>120.1</v>
+        <v>30.117999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43769</v>
+        <v>40209</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>121</v>
+        <v>20.422999999999998</v>
       </c>
       <c r="D38">
-        <v>691.6</v>
+        <v>260.25799999999998</v>
       </c>
       <c r="E38">
-        <v>435.3</v>
+        <v>174.94499999999999</v>
       </c>
       <c r="F38">
-        <v>465.5</v>
+        <v>151.96299999999999</v>
       </c>
       <c r="G38">
-        <v>1163.4000000000001</v>
+        <v>496.40800000000002</v>
       </c>
       <c r="H38">
-        <v>6274.5</v>
+        <v>2521.4</v>
       </c>
       <c r="I38">
-        <v>150.1</v>
+        <v>36.104999999999997</v>
       </c>
       <c r="J38">
-        <v>1262.5999999999999</v>
+        <v>720.899</v>
       </c>
       <c r="K38">
-        <v>63.7</v>
+        <v>15.119</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-158.91</v>
       </c>
       <c r="N38">
-        <v>1110.5999999999999</v>
+        <v>178.80699999999999</v>
       </c>
       <c r="O38">
-        <v>2645.9</v>
+        <v>969.34400000000005</v>
       </c>
       <c r="P38">
-        <v>1826.3</v>
+        <v>751.01800000000003</v>
       </c>
       <c r="Q38">
-        <v>-23.7</v>
+        <v>-2.11</v>
       </c>
       <c r="R38">
-        <v>43769</v>
+        <v>40209</v>
       </c>
       <c r="S38">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>3628.6</v>
+        <v>1552.056</v>
       </c>
       <c r="U38">
-        <v>89</v>
+        <v>1.8220000000000001</v>
       </c>
       <c r="V38">
-        <v>199.9</v>
+        <v>56.142000000000003</v>
       </c>
       <c r="W38">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-139.1</v>
+        <v>-36.83</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>5.9790000000000001</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>121</v>
+        <v>20.422999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43861</v>
+        <v>40298</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>90.5</v>
+        <v>4.4550000000000001</v>
       </c>
       <c r="D39">
-        <v>646.20000000000005</v>
+        <v>289.27100000000002</v>
       </c>
       <c r="E39">
-        <v>408</v>
+        <v>174.291</v>
       </c>
       <c r="F39">
-        <v>426.5</v>
+        <v>167.09299999999999</v>
       </c>
       <c r="G39">
-        <v>1149.9000000000001</v>
+        <v>493.44900000000001</v>
       </c>
       <c r="H39">
-        <v>6548.5</v>
+        <v>2509.2249999999999</v>
       </c>
       <c r="I39">
-        <v>141.69999999999999</v>
+        <v>42.822000000000003</v>
       </c>
       <c r="J39">
-        <v>1233.7</v>
+        <v>701.58100000000002</v>
       </c>
       <c r="K39">
-        <v>43</v>
+        <v>13.567</v>
       </c>
       <c r="L39">
-        <v>-20.8</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-263.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1068.5</v>
+        <v>208.256</v>
       </c>
       <c r="O39">
-        <v>2817.6</v>
+        <v>966.49699999999996</v>
       </c>
       <c r="P39">
-        <v>2049.4</v>
+        <v>717.74800000000005</v>
       </c>
       <c r="Q39">
-        <v>-12.1</v>
+        <v>8.0069999999999997</v>
       </c>
       <c r="R39">
-        <v>43861</v>
+        <v>40298</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3730.9</v>
+        <v>1542.7280000000001</v>
       </c>
       <c r="U39">
-        <v>76.8</v>
+        <v>9.8290000000000006</v>
       </c>
       <c r="V39">
-        <v>129.69999999999999</v>
+        <v>71.617999999999995</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>-1.3620000000000001</v>
       </c>
       <c r="X39">
-        <v>-63.2</v>
+        <v>-29.943999999999999</v>
       </c>
       <c r="Y39">
-        <v>241.2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>90.5</v>
+        <v>4.4560000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43951</v>
+        <v>40390</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>11.5</v>
+        <v>39.726999999999997</v>
       </c>
       <c r="D40">
-        <v>524.9</v>
+        <v>295.63499999999999</v>
       </c>
       <c r="E40">
-        <v>368.8</v>
+        <v>190.05500000000001</v>
       </c>
       <c r="F40">
-        <v>323.5</v>
+        <v>181.18600000000001</v>
       </c>
       <c r="G40">
-        <v>1166.2</v>
+        <v>491.27</v>
       </c>
       <c r="H40">
-        <v>6510</v>
+        <v>2503.04</v>
       </c>
       <c r="I40">
-        <v>128.69999999999999</v>
+        <v>41.951000000000001</v>
       </c>
       <c r="J40">
-        <v>1361.8</v>
+        <v>624.37300000000005</v>
       </c>
       <c r="K40">
-        <v>54.6</v>
+        <v>22.297999999999998</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1025.3</v>
+        <v>224.17599999999999</v>
       </c>
       <c r="O40">
-        <v>2882.5</v>
+        <v>908.92899999999997</v>
       </c>
       <c r="P40">
-        <v>2181.3000000000002</v>
+        <v>649.471</v>
       </c>
       <c r="Q40">
-        <v>3.4</v>
+        <v>-6.5890000000000004</v>
       </c>
       <c r="R40">
-        <v>43951</v>
+        <v>40390</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3627.5</v>
+        <v>1594.1110000000001</v>
       </c>
       <c r="U40">
-        <v>79.8</v>
+        <v>3.24</v>
       </c>
       <c r="V40">
-        <v>25.8</v>
+        <v>75.293000000000006</v>
       </c>
       <c r="W40">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>71.599999999999994</v>
+        <v>-63.545000000000002</v>
       </c>
       <c r="Y40">
-        <v>232.7</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>11.5</v>
+        <v>39.726999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44043</v>
+        <v>40482</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>55.2</v>
+        <v>48.198</v>
       </c>
       <c r="D41">
-        <v>578.20000000000005</v>
+        <v>313.35199999999998</v>
       </c>
       <c r="E41">
-        <v>450.5</v>
+        <v>197.49</v>
       </c>
       <c r="F41">
-        <v>360.8</v>
+        <v>189.48099999999999</v>
       </c>
       <c r="G41">
-        <v>1321.3</v>
+        <v>491.34</v>
       </c>
       <c r="H41">
-        <v>6748.4</v>
+        <v>2525.018</v>
       </c>
       <c r="I41">
-        <v>180.2</v>
+        <v>51.792000000000002</v>
       </c>
       <c r="J41">
-        <v>1350.9</v>
+        <v>591.97699999999998</v>
       </c>
       <c r="K41">
-        <v>52.7</v>
+        <v>19.158999999999999</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,129 +4129,3449 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1128.7</v>
+        <v>199.52</v>
       </c>
       <c r="O41">
-        <v>2988</v>
+        <v>858.24199999999996</v>
       </c>
       <c r="P41">
-        <v>2173.1</v>
+        <v>612.43600000000004</v>
       </c>
       <c r="Q41">
-        <v>47.5</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="R41">
-        <v>44043</v>
+        <v>40482</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="T41">
-        <v>3760.4</v>
+        <v>1666.7760000000001</v>
       </c>
       <c r="U41">
-        <v>127.4</v>
+        <v>3.573</v>
       </c>
       <c r="V41">
-        <v>112.8</v>
+        <v>64.61</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-1.37</v>
       </c>
       <c r="X41">
-        <v>-18.600000000000001</v>
+        <v>-31.248000000000001</v>
       </c>
       <c r="Y41">
-        <v>236.6</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>55.2</v>
+        <v>48.198</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44135</v>
+        <v>40574</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>39.215000000000003</v>
+      </c>
+      <c r="D42">
+        <v>293.22899999999998</v>
+      </c>
+      <c r="E42">
+        <v>189.46199999999999</v>
+      </c>
+      <c r="F42">
+        <v>178.506</v>
+      </c>
+      <c r="G42">
+        <v>503.34300000000002</v>
+      </c>
+      <c r="H42">
+        <v>2571.9380000000001</v>
+      </c>
+      <c r="I42">
+        <v>48.341000000000001</v>
+      </c>
+      <c r="J42">
+        <v>586.72400000000005</v>
+      </c>
+      <c r="K42">
+        <v>15.486000000000001</v>
+      </c>
+      <c r="L42">
+        <v>-3.673</v>
+      </c>
+      <c r="M42">
+        <v>-514.20000000000005</v>
+      </c>
+      <c r="N42">
+        <v>186.07400000000001</v>
+      </c>
+      <c r="O42">
+        <v>849.63900000000001</v>
+      </c>
+      <c r="P42">
+        <v>602.80999999999995</v>
+      </c>
+      <c r="Q42">
+        <v>-0.253</v>
+      </c>
+      <c r="R42">
+        <v>40574</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1722.299</v>
+      </c>
+      <c r="U42">
+        <v>3.32</v>
+      </c>
+      <c r="V42">
+        <v>72.930999999999997</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-11.945</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>39.215000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>35.36</v>
+      </c>
+      <c r="D43">
+        <v>325.30099999999999</v>
+      </c>
+      <c r="E43">
+        <v>203.76400000000001</v>
+      </c>
+      <c r="F43">
+        <v>201.762</v>
+      </c>
+      <c r="G43">
+        <v>538.43499999999995</v>
+      </c>
+      <c r="H43">
+        <v>2625.192</v>
+      </c>
+      <c r="I43">
+        <v>51.640999999999998</v>
+      </c>
+      <c r="J43">
+        <v>525.51800000000003</v>
+      </c>
+      <c r="K43">
+        <v>16.597000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>206.15</v>
+      </c>
+      <c r="O43">
+        <v>814.86599999999999</v>
+      </c>
+      <c r="P43">
+        <v>554.71500000000003</v>
+      </c>
+      <c r="Q43">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="R43">
+        <v>40663</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1810.326</v>
+      </c>
+      <c r="U43">
+        <v>8.43</v>
+      </c>
+      <c r="V43">
+        <v>64.891000000000005</v>
+      </c>
+      <c r="W43">
+        <v>-1.385</v>
+      </c>
+      <c r="X43">
+        <v>-32.801000000000002</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>35.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>44.216999999999999</v>
+      </c>
+      <c r="D44">
+        <v>351.39600000000002</v>
+      </c>
+      <c r="E44">
+        <v>218.416</v>
+      </c>
+      <c r="F44">
+        <v>202.80199999999999</v>
+      </c>
+      <c r="G44">
+        <v>543.63599999999997</v>
+      </c>
+      <c r="H44">
+        <v>2615.3339999999998</v>
+      </c>
+      <c r="I44">
+        <v>58.905000000000001</v>
+      </c>
+      <c r="J44">
+        <v>410.58499999999998</v>
+      </c>
+      <c r="K44">
+        <v>26.234999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>237.69300000000001</v>
+      </c>
+      <c r="O44">
+        <v>727.65599999999995</v>
+      </c>
+      <c r="P44">
+        <v>449.32</v>
+      </c>
+      <c r="Q44">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="R44">
+        <v>40755</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1887.6780000000001</v>
+      </c>
+      <c r="U44">
+        <v>7.8719999999999999</v>
+      </c>
+      <c r="V44">
+        <v>87.468999999999994</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-64.447000000000003</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>44.216999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>56.637999999999998</v>
+      </c>
+      <c r="D45">
+        <v>360.90899999999999</v>
+      </c>
+      <c r="E45">
+        <v>214.779</v>
+      </c>
+      <c r="F45">
+        <v>223.63300000000001</v>
+      </c>
+      <c r="G45">
+        <v>540.34699999999998</v>
+      </c>
+      <c r="H45">
+        <v>2624.518</v>
+      </c>
+      <c r="I45">
+        <v>61.755000000000003</v>
+      </c>
+      <c r="J45">
+        <v>327.45299999999997</v>
+      </c>
+      <c r="K45">
+        <v>40.478999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>267.20600000000002</v>
+      </c>
+      <c r="O45">
+        <v>687.03</v>
+      </c>
+      <c r="P45">
+        <v>385.03199999999998</v>
+      </c>
+      <c r="Q45">
+        <v>-2.6970000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40847</v>
+      </c>
+      <c r="S45">
+        <v>7400</v>
+      </c>
+      <c r="T45">
+        <v>1937.4880000000001</v>
+      </c>
+      <c r="U45">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="V45">
+        <v>110.99</v>
+      </c>
+      <c r="W45">
+        <v>-1.431</v>
+      </c>
+      <c r="X45">
+        <v>-63.68</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>56.637999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40939</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>54.622999999999998</v>
+      </c>
+      <c r="D46">
+        <v>326.06</v>
+      </c>
+      <c r="E46">
+        <v>200.16</v>
+      </c>
+      <c r="F46">
+        <v>210.453</v>
+      </c>
+      <c r="G46">
+        <v>555.26300000000003</v>
+      </c>
+      <c r="H46">
+        <v>2599.2669999999998</v>
+      </c>
+      <c r="I46">
+        <v>48.204999999999998</v>
+      </c>
+      <c r="J46">
+        <v>371.11399999999998</v>
+      </c>
+      <c r="K46">
+        <v>26.690999999999999</v>
+      </c>
+      <c r="L46">
+        <v>-13.788</v>
+      </c>
+      <c r="M46">
+        <v>-292.02499999999998</v>
+      </c>
+      <c r="N46">
+        <v>206.392</v>
+      </c>
+      <c r="O46">
+        <v>661.91</v>
+      </c>
+      <c r="P46">
+        <v>415.10500000000002</v>
+      </c>
+      <c r="Q46">
+        <v>2.5059999999999998</v>
+      </c>
+      <c r="R46">
+        <v>40939</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1937.357</v>
+      </c>
+      <c r="U46">
+        <v>7.681</v>
+      </c>
+      <c r="V46">
+        <v>41.55</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-20.196999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>54.622999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41029</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>54.920999999999999</v>
+      </c>
+      <c r="D47">
+        <v>344.589</v>
+      </c>
+      <c r="E47">
+        <v>202.88200000000001</v>
+      </c>
+      <c r="F47">
+        <v>220.696</v>
+      </c>
+      <c r="G47">
+        <v>576.28300000000002</v>
+      </c>
+      <c r="H47">
+        <v>2628.5610000000001</v>
+      </c>
+      <c r="I47">
+        <v>54.926000000000002</v>
+      </c>
+      <c r="J47">
+        <v>275.09199999999998</v>
+      </c>
+      <c r="K47">
+        <v>31.716000000000001</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>228.125</v>
+      </c>
+      <c r="O47">
+        <v>590.60500000000002</v>
+      </c>
+      <c r="P47">
+        <v>323.50799999999998</v>
+      </c>
+      <c r="Q47">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="R47">
+        <v>41029</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2037.9559999999999</v>
+      </c>
+      <c r="U47">
+        <v>7.7450000000000001</v>
+      </c>
+      <c r="V47">
+        <v>80.641000000000005</v>
+      </c>
+      <c r="W47">
+        <v>-1.421</v>
+      </c>
+      <c r="X47">
+        <v>-60.372</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>54.920999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>66.875</v>
+      </c>
+      <c r="D48">
+        <v>378.18599999999998</v>
+      </c>
+      <c r="E48">
+        <v>228.59299999999999</v>
+      </c>
+      <c r="F48">
+        <v>240.09700000000001</v>
+      </c>
+      <c r="G48">
+        <v>628.10599999999999</v>
+      </c>
+      <c r="H48">
+        <v>2883.9180000000001</v>
+      </c>
+      <c r="I48">
+        <v>66.251000000000005</v>
+      </c>
+      <c r="J48">
+        <v>454.22500000000002</v>
+      </c>
+      <c r="K48">
+        <v>30.158000000000001</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>232.07499999999999</v>
+      </c>
+      <c r="O48">
+        <v>787.27200000000005</v>
+      </c>
+      <c r="P48">
+        <v>484.38299999999998</v>
+      </c>
+      <c r="Q48">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41121</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2096.6460000000002</v>
+      </c>
+      <c r="U48">
+        <v>12.731999999999999</v>
+      </c>
+      <c r="V48">
+        <v>78.113</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>94.378</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>66.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>71.92</v>
+      </c>
+      <c r="D49">
+        <v>396.30099999999999</v>
+      </c>
+      <c r="E49">
+        <v>234.297</v>
+      </c>
+      <c r="F49">
+        <v>252.76400000000001</v>
+      </c>
+      <c r="G49">
+        <v>657.86</v>
+      </c>
+      <c r="H49">
+        <v>2941.384</v>
+      </c>
+      <c r="I49">
+        <v>85.055999999999997</v>
+      </c>
+      <c r="J49">
+        <v>352.322</v>
+      </c>
+      <c r="K49">
+        <v>25.283999999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>262.55200000000002</v>
+      </c>
+      <c r="O49">
+        <v>728.226</v>
+      </c>
+      <c r="P49">
+        <v>377.60599999999999</v>
+      </c>
+      <c r="Q49">
+        <v>0.108</v>
+      </c>
+      <c r="R49">
+        <v>41213</v>
+      </c>
+      <c r="S49">
+        <v>7800</v>
+      </c>
+      <c r="T49">
+        <v>2213.1579999999999</v>
+      </c>
+      <c r="U49">
+        <v>12.84</v>
+      </c>
+      <c r="V49">
+        <v>114.81699999999999</v>
+      </c>
+      <c r="W49">
+        <v>-1.4359999999999999</v>
+      </c>
+      <c r="X49">
+        <v>-82.251999999999995</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>71.92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>74.667000000000002</v>
+      </c>
+      <c r="D50">
+        <v>379.63900000000001</v>
+      </c>
+      <c r="E50">
+        <v>241.16800000000001</v>
+      </c>
+      <c r="F50">
+        <v>240.49799999999999</v>
+      </c>
+      <c r="G50">
+        <v>680.84799999999996</v>
+      </c>
+      <c r="H50">
+        <v>2969.5439999999999</v>
+      </c>
+      <c r="I50">
+        <v>61.92</v>
+      </c>
+      <c r="J50">
+        <v>377.512</v>
+      </c>
+      <c r="K50">
+        <v>30.459</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-311.16899999999998</v>
+      </c>
+      <c r="N50">
+        <v>226.13200000000001</v>
+      </c>
+      <c r="O50">
+        <v>719.99599999999998</v>
+      </c>
+      <c r="P50">
+        <v>411.27100000000002</v>
+      </c>
+      <c r="Q50">
+        <v>1.605</v>
+      </c>
+      <c r="R50">
+        <v>41305</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2249.5479999999998</v>
+      </c>
+      <c r="U50">
+        <v>14.445</v>
+      </c>
+      <c r="V50">
+        <v>47.622999999999998</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-14.125</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>74.667000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>75.135999999999996</v>
+      </c>
+      <c r="D51">
+        <v>383.34100000000001</v>
+      </c>
+      <c r="E51">
+        <v>224.489</v>
+      </c>
+      <c r="F51">
+        <v>254.179</v>
+      </c>
+      <c r="G51">
+        <v>675.78800000000001</v>
+      </c>
+      <c r="H51">
+        <v>2966.732</v>
+      </c>
+      <c r="I51">
+        <v>73.778999999999996</v>
+      </c>
+      <c r="J51">
+        <v>291.54899999999998</v>
+      </c>
+      <c r="K51">
+        <v>28.954999999999998</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>228.91900000000001</v>
+      </c>
+      <c r="O51">
+        <v>630.23599999999999</v>
+      </c>
+      <c r="P51">
+        <v>323.404</v>
+      </c>
+      <c r="Q51">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="R51">
+        <v>41394</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2336.4960000000001</v>
+      </c>
+      <c r="U51">
+        <v>14.441000000000001</v>
+      </c>
+      <c r="V51">
+        <v>114.90300000000001</v>
+      </c>
+      <c r="W51">
+        <v>-1.4490000000000001</v>
+      </c>
+      <c r="X51">
+        <v>-72.200999999999993</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>75.135999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>88.950999999999993</v>
+      </c>
+      <c r="D52">
+        <v>411.29300000000001</v>
+      </c>
+      <c r="E52">
+        <v>247.29599999999999</v>
+      </c>
+      <c r="F52">
+        <v>268.274</v>
+      </c>
+      <c r="G52">
+        <v>706.00699999999995</v>
+      </c>
+      <c r="H52">
+        <v>3006.9079999999999</v>
+      </c>
+      <c r="I52">
+        <v>76.570999999999998</v>
+      </c>
+      <c r="J52">
+        <v>215.291</v>
+      </c>
+      <c r="K52">
+        <v>28.338000000000001</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>249.286</v>
+      </c>
+      <c r="O52">
+        <v>569.26599999999996</v>
+      </c>
+      <c r="P52">
+        <v>245.82900000000001</v>
+      </c>
+      <c r="Q52">
+        <v>11.041</v>
+      </c>
+      <c r="R52">
+        <v>41486</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2437.6419999999998</v>
+      </c>
+      <c r="U52">
+        <v>25.481999999999999</v>
+      </c>
+      <c r="V52">
+        <v>103.05800000000001</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-51.813000000000002</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>88.950999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>57.396999999999998</v>
+      </c>
+      <c r="D53">
+        <v>411.05200000000002</v>
+      </c>
+      <c r="E53">
+        <v>229.53700000000001</v>
+      </c>
+      <c r="F53">
+        <v>263.858</v>
+      </c>
+      <c r="G53">
+        <v>747.24099999999999</v>
+      </c>
+      <c r="H53">
+        <v>3137.261</v>
+      </c>
+      <c r="I53">
+        <v>108.172</v>
+      </c>
+      <c r="J53">
+        <v>303.37</v>
+      </c>
+      <c r="K53">
+        <v>42.987000000000002</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>321.25299999999999</v>
+      </c>
+      <c r="O53">
+        <v>713.76700000000005</v>
+      </c>
+      <c r="P53">
+        <v>346.35700000000003</v>
+      </c>
+      <c r="Q53">
+        <v>51.911000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41578</v>
+      </c>
+      <c r="S53">
+        <v>8000</v>
+      </c>
+      <c r="T53">
+        <v>2423.4940000000001</v>
+      </c>
+      <c r="U53">
+        <v>77.393000000000001</v>
+      </c>
+      <c r="V53">
+        <v>150.34100000000001</v>
+      </c>
+      <c r="W53">
+        <v>-1.4690000000000001</v>
+      </c>
+      <c r="X53">
+        <v>-23.457999999999998</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>57.396999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>71.843000000000004</v>
+      </c>
+      <c r="D54">
+        <v>404.98</v>
+      </c>
+      <c r="E54">
+        <v>235.28800000000001</v>
+      </c>
+      <c r="F54">
+        <v>262.92899999999997</v>
+      </c>
+      <c r="G54">
+        <v>701.09400000000005</v>
+      </c>
+      <c r="H54">
+        <v>3114.7550000000001</v>
+      </c>
+      <c r="I54">
+        <v>74.77</v>
+      </c>
+      <c r="J54">
+        <v>302.68900000000002</v>
+      </c>
+      <c r="K54">
+        <v>44.146999999999998</v>
+      </c>
+      <c r="L54">
+        <v>-0.53400000000000003</v>
+      </c>
+      <c r="M54">
+        <v>-486.9</v>
+      </c>
+      <c r="N54">
+        <v>268.30700000000002</v>
+      </c>
+      <c r="O54">
+        <v>660.846</v>
+      </c>
+      <c r="P54">
+        <v>346.83600000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-48.564999999999998</v>
+      </c>
+      <c r="R54">
+        <v>41670</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2453.9090000000001</v>
+      </c>
+      <c r="U54">
+        <v>28.827999999999999</v>
+      </c>
+      <c r="V54">
+        <v>68.573999999999998</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-58.584000000000003</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>71.843000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>79.16</v>
+      </c>
+      <c r="D55">
+        <v>412.31700000000001</v>
+      </c>
+      <c r="E55">
+        <v>239.76900000000001</v>
+      </c>
+      <c r="F55">
+        <v>268.49900000000002</v>
+      </c>
+      <c r="G55">
+        <v>764.68</v>
+      </c>
+      <c r="H55">
+        <v>3221.982</v>
+      </c>
+      <c r="I55">
+        <v>86.248000000000005</v>
+      </c>
+      <c r="J55">
+        <v>302.20800000000003</v>
+      </c>
+      <c r="K55">
+        <v>33.915999999999997</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>264.666</v>
+      </c>
+      <c r="O55">
+        <v>659.90200000000004</v>
+      </c>
+      <c r="P55">
+        <v>336.12400000000002</v>
+      </c>
+      <c r="Q55">
+        <v>53.831000000000003</v>
+      </c>
+      <c r="R55">
+        <v>41759</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2562.08</v>
+      </c>
+      <c r="U55">
+        <v>82.659000000000006</v>
+      </c>
+      <c r="V55">
+        <v>126.33199999999999</v>
+      </c>
+      <c r="W55">
+        <v>-1.4359999999999999</v>
+      </c>
+      <c r="X55">
+        <v>-11.545</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>79.16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>88.066999999999993</v>
+      </c>
+      <c r="D56">
+        <v>432.48200000000003</v>
+      </c>
+      <c r="E56">
+        <v>261.964</v>
+      </c>
+      <c r="F56">
+        <v>280.58999999999997</v>
+      </c>
+      <c r="G56">
+        <v>895.81299999999999</v>
+      </c>
+      <c r="H56">
+        <v>3367.3739999999998</v>
+      </c>
+      <c r="I56">
+        <v>87.209000000000003</v>
+      </c>
+      <c r="J56">
+        <v>301.74900000000002</v>
+      </c>
+      <c r="K56">
+        <v>46.491999999999997</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>297.68700000000001</v>
+      </c>
+      <c r="O56">
+        <v>691.09699999999998</v>
+      </c>
+      <c r="P56">
+        <v>348.24099999999999</v>
+      </c>
+      <c r="Q56">
+        <v>91.126999999999995</v>
+      </c>
+      <c r="R56">
+        <v>41851</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2676.277</v>
+      </c>
+      <c r="U56">
+        <v>173.786</v>
+      </c>
+      <c r="V56">
+        <v>107.861</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>40.043999999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>88.066999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>30.786000000000001</v>
+      </c>
+      <c r="D57">
+        <v>467.99700000000001</v>
+      </c>
+      <c r="E57">
+        <v>276.27999999999997</v>
+      </c>
+      <c r="F57">
+        <v>296.05200000000002</v>
+      </c>
+      <c r="G57">
+        <v>791.61699999999996</v>
+      </c>
+      <c r="H57">
+        <v>4458.34</v>
+      </c>
+      <c r="I57">
+        <v>116.35299999999999</v>
+      </c>
+      <c r="J57">
+        <v>1280.8330000000001</v>
+      </c>
+      <c r="K57">
+        <v>101.518</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>442.18200000000002</v>
+      </c>
+      <c r="O57">
+        <v>1869.9</v>
+      </c>
+      <c r="P57">
+        <v>1382.3510000000001</v>
+      </c>
+      <c r="Q57">
+        <v>-148.56399999999999</v>
+      </c>
+      <c r="R57">
+        <v>41943</v>
+      </c>
+      <c r="S57">
+        <v>9460</v>
+      </c>
+      <c r="T57">
+        <v>2588.44</v>
+      </c>
+      <c r="U57">
+        <v>25.222000000000001</v>
+      </c>
+      <c r="V57">
+        <v>152.05600000000001</v>
+      </c>
+      <c r="W57">
+        <v>-1.448</v>
+      </c>
+      <c r="X57">
+        <v>872.25</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>30.786000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>61.179000000000002</v>
+      </c>
+      <c r="D58">
+        <v>445.17099999999999</v>
+      </c>
+      <c r="E58">
+        <v>275.899</v>
+      </c>
+      <c r="F58">
+        <v>285.05099999999999</v>
+      </c>
+      <c r="G58">
+        <v>787.10900000000004</v>
+      </c>
+      <c r="H58">
+        <v>4335.7439999999997</v>
+      </c>
+      <c r="I58">
+        <v>87.335999999999999</v>
+      </c>
+      <c r="J58">
+        <v>1302.5419999999999</v>
+      </c>
+      <c r="K58">
+        <v>92.795000000000002</v>
+      </c>
+      <c r="L58">
+        <v>-10.683999999999999</v>
+      </c>
+      <c r="M58">
+        <v>-218.8</v>
+      </c>
+      <c r="N58">
+        <v>382.57900000000001</v>
+      </c>
+      <c r="O58">
+        <v>1818.759</v>
+      </c>
+      <c r="P58">
+        <v>1395.337</v>
+      </c>
+      <c r="Q58">
+        <v>-8.7940000000000005</v>
+      </c>
+      <c r="R58">
+        <v>42035</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2516.9850000000001</v>
+      </c>
+      <c r="U58">
+        <v>16.428000000000001</v>
+      </c>
+      <c r="V58">
+        <v>79.840999999999994</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-20.247</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>61.179000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>60.713000000000001</v>
+      </c>
+      <c r="D59">
+        <v>434.67599999999999</v>
+      </c>
+      <c r="E59">
+        <v>267.18299999999999</v>
+      </c>
+      <c r="F59">
+        <v>272.916</v>
+      </c>
+      <c r="G59">
+        <v>799.96600000000001</v>
+      </c>
+      <c r="H59">
+        <v>4392.66</v>
+      </c>
+      <c r="I59">
+        <v>100.545</v>
+      </c>
+      <c r="J59">
+        <v>1105.5440000000001</v>
+      </c>
+      <c r="K59">
+        <v>242.16499999999999</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>535.64200000000005</v>
+      </c>
+      <c r="O59">
+        <v>1776.923</v>
+      </c>
+      <c r="P59">
+        <v>1347.7090000000001</v>
+      </c>
+      <c r="Q59">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42124</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2615.7370000000001</v>
+      </c>
+      <c r="U59">
+        <v>17.911000000000001</v>
+      </c>
+      <c r="V59">
+        <v>110.64</v>
+      </c>
+      <c r="W59">
+        <v>-1.448</v>
+      </c>
+      <c r="X59">
+        <v>-54.243000000000002</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>60.713000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>44.951999999999998</v>
+      </c>
+      <c r="D60">
+        <v>461.678</v>
+      </c>
+      <c r="E60">
+        <v>280.16000000000003</v>
+      </c>
+      <c r="F60">
+        <v>285.78699999999998</v>
+      </c>
+      <c r="G60">
+        <v>814.69200000000001</v>
+      </c>
+      <c r="H60">
+        <v>4422.6819999999998</v>
+      </c>
+      <c r="I60">
+        <v>114.479</v>
+      </c>
+      <c r="J60">
+        <v>1070.299</v>
+      </c>
+      <c r="K60">
+        <v>237.55799999999999</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>529.58699999999999</v>
+      </c>
+      <c r="O60">
+        <v>1728.7470000000001</v>
+      </c>
+      <c r="P60">
+        <v>1307.857</v>
+      </c>
+      <c r="Q60">
+        <v>-0.90600000000000003</v>
+      </c>
+      <c r="R60">
+        <v>42216</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2693.9349999999999</v>
+      </c>
+      <c r="U60">
+        <v>17.004999999999999</v>
+      </c>
+      <c r="V60">
+        <v>95.968000000000004</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-29.681999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>44.951000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>36.679000000000002</v>
+      </c>
+      <c r="D61">
+        <v>455.536</v>
+      </c>
+      <c r="E61">
+        <v>282.91800000000001</v>
+      </c>
+      <c r="F61">
+        <v>288.608</v>
+      </c>
+      <c r="G61">
+        <v>841.428</v>
+      </c>
+      <c r="H61">
+        <v>4459.8639999999996</v>
+      </c>
+      <c r="I61">
+        <v>116.91200000000001</v>
+      </c>
+      <c r="J61">
+        <v>1105.4079999999999</v>
+      </c>
+      <c r="K61">
+        <v>240.40299999999999</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>568.78200000000004</v>
+      </c>
+      <c r="O61">
+        <v>1785.96</v>
+      </c>
+      <c r="P61">
+        <v>1349.211</v>
+      </c>
+      <c r="Q61">
+        <v>-0.57899999999999996</v>
+      </c>
+      <c r="R61">
+        <v>42308</v>
+      </c>
+      <c r="S61">
+        <v>10200</v>
+      </c>
+      <c r="T61">
+        <v>2673.904</v>
+      </c>
+      <c r="U61">
+        <v>16.425999999999998</v>
+      </c>
+      <c r="V61">
+        <v>104.521</v>
+      </c>
+      <c r="W61">
+        <v>-1.458</v>
+      </c>
+      <c r="X61">
+        <v>-2.5049999999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>36.679000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>51.4</v>
+      </c>
+      <c r="D62">
+        <v>449.6</v>
+      </c>
+      <c r="E62">
+        <v>278.89100000000002</v>
+      </c>
+      <c r="F62">
+        <v>273.7</v>
+      </c>
+      <c r="G62">
+        <v>844.50400000000002</v>
+      </c>
+      <c r="H62">
+        <v>4401.8019999999997</v>
+      </c>
+      <c r="I62">
+        <v>116.43</v>
+      </c>
+      <c r="J62">
+        <v>1330.627</v>
+      </c>
+      <c r="K62">
+        <v>39.6</v>
+      </c>
+      <c r="L62">
+        <v>-0.7</v>
+      </c>
+      <c r="M62">
+        <v>-338.5</v>
+      </c>
+      <c r="N62">
+        <v>347.96899999999999</v>
+      </c>
+      <c r="O62">
+        <v>1795.076</v>
+      </c>
+      <c r="P62">
+        <v>1377.3230000000001</v>
+      </c>
+      <c r="Q62">
+        <v>-0.4</v>
+      </c>
+      <c r="R62">
+        <v>42400</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2606.7260000000001</v>
+      </c>
+      <c r="U62">
+        <v>16.047000000000001</v>
+      </c>
+      <c r="V62">
+        <v>89.5</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>17.8</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D63">
+        <v>483.8</v>
+      </c>
+      <c r="E63">
+        <v>298.82499999999999</v>
+      </c>
+      <c r="F63">
+        <v>304.3</v>
+      </c>
+      <c r="G63">
+        <v>915.11500000000001</v>
+      </c>
+      <c r="H63">
+        <v>4601.2529999999997</v>
+      </c>
+      <c r="I63">
+        <v>105.759</v>
+      </c>
+      <c r="J63">
+        <v>1411.182</v>
+      </c>
+      <c r="K63">
+        <v>30.190999999999999</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>322.21699999999998</v>
+      </c>
+      <c r="O63">
+        <v>1856.472</v>
+      </c>
+      <c r="P63">
+        <v>1441.373</v>
+      </c>
+      <c r="Q63">
+        <v>28.5</v>
+      </c>
+      <c r="R63">
+        <v>42490</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2744.7809999999999</v>
+      </c>
+      <c r="U63">
+        <v>44.463999999999999</v>
+      </c>
+      <c r="V63">
+        <v>97.9</v>
+      </c>
+      <c r="W63">
+        <v>-1.5</v>
+      </c>
+      <c r="X63">
+        <v>54.7</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>87.9</v>
+      </c>
+      <c r="D64">
+        <v>514.70000000000005</v>
+      </c>
+      <c r="E64">
+        <v>307.34100000000001</v>
+      </c>
+      <c r="F64">
+        <v>326</v>
+      </c>
+      <c r="G64">
+        <v>929.63900000000001</v>
+      </c>
+      <c r="H64">
+        <v>4592.6750000000002</v>
+      </c>
+      <c r="I64">
+        <v>87.688000000000002</v>
+      </c>
+      <c r="J64">
+        <v>1412.374</v>
+      </c>
+      <c r="K64">
+        <v>33.192</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>320.24099999999999</v>
+      </c>
+      <c r="O64">
+        <v>1855.2729999999999</v>
+      </c>
+      <c r="P64">
+        <v>1444.066</v>
+      </c>
+      <c r="Q64">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42582</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2737.402</v>
+      </c>
+      <c r="U64">
+        <v>62.613</v>
+      </c>
+      <c r="V64">
+        <v>128.9</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>29</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>60.5</v>
+      </c>
+      <c r="D65">
+        <v>518.6</v>
+      </c>
+      <c r="E65">
+        <v>291.39999999999998</v>
+      </c>
+      <c r="F65">
+        <v>333.3</v>
+      </c>
+      <c r="G65">
+        <v>937.1</v>
+      </c>
+      <c r="H65">
+        <v>4478.6000000000004</v>
+      </c>
+      <c r="I65">
+        <v>107.4</v>
+      </c>
+      <c r="J65">
+        <v>1107.4000000000001</v>
+      </c>
+      <c r="K65">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>543.20000000000005</v>
+      </c>
+      <c r="O65">
+        <v>1782.7</v>
+      </c>
+      <c r="P65">
+        <v>1333.7</v>
+      </c>
+      <c r="Q65">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="R65">
+        <v>42674</v>
+      </c>
+      <c r="S65">
+        <v>10600</v>
+      </c>
+      <c r="T65">
+        <v>2695.9</v>
+      </c>
+      <c r="U65">
+        <v>100.8</v>
+      </c>
+      <c r="V65">
+        <v>193.3</v>
+      </c>
+      <c r="W65">
+        <v>-1.4</v>
+      </c>
+      <c r="X65">
+        <v>-102.9</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>75.8</v>
+      </c>
+      <c r="D66">
+        <v>499.1</v>
+      </c>
+      <c r="E66">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="F66">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="G66">
+        <v>883.9</v>
+      </c>
+      <c r="H66">
+        <v>4656.7</v>
+      </c>
+      <c r="I66">
+        <v>100.3</v>
+      </c>
+      <c r="J66">
+        <v>1201</v>
+      </c>
+      <c r="K66">
+        <v>10.3</v>
+      </c>
+      <c r="L66">
+        <v>-5.9</v>
+      </c>
+      <c r="M66">
+        <v>-169.1</v>
+      </c>
+      <c r="N66">
+        <v>517.9</v>
+      </c>
+      <c r="O66">
+        <v>1837.3</v>
+      </c>
+      <c r="P66">
+        <v>1424.5</v>
+      </c>
+      <c r="Q66">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="R66">
+        <v>42766</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>2819.4</v>
+      </c>
+      <c r="U66">
+        <v>91.1</v>
+      </c>
+      <c r="V66">
+        <v>108.4</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>83.5</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>104.9</v>
+      </c>
+      <c r="D67">
+        <v>522.4</v>
+      </c>
+      <c r="E67">
+        <v>311.2</v>
+      </c>
+      <c r="F67">
+        <v>343.9</v>
+      </c>
+      <c r="G67">
+        <v>958.3</v>
+      </c>
+      <c r="H67">
+        <v>4749.8</v>
+      </c>
+      <c r="I67">
+        <v>100.4</v>
+      </c>
+      <c r="J67">
+        <v>1345.6</v>
+      </c>
+      <c r="K67">
+        <v>31.3</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>343.2</v>
+      </c>
+      <c r="O67">
+        <v>1810</v>
+      </c>
+      <c r="P67">
+        <v>1386.9</v>
+      </c>
+      <c r="Q67">
+        <v>30.2</v>
+      </c>
+      <c r="R67">
+        <v>42855</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2939.8</v>
+      </c>
+      <c r="U67">
+        <v>121.3</v>
+      </c>
+      <c r="V67">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="W67">
+        <v>-1.5</v>
+      </c>
+      <c r="X67">
+        <v>-73.5</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>103.6</v>
+      </c>
+      <c r="D68">
+        <v>556</v>
+      </c>
+      <c r="E68">
+        <v>335.9</v>
+      </c>
+      <c r="F68">
+        <v>356.2</v>
+      </c>
+      <c r="G68">
+        <v>932.1</v>
+      </c>
+      <c r="H68">
+        <v>4782.8</v>
+      </c>
+      <c r="I68">
+        <v>112.2</v>
+      </c>
+      <c r="J68">
+        <v>1180</v>
+      </c>
+      <c r="K68">
+        <v>33.4</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>371.2</v>
+      </c>
+      <c r="O68">
+        <v>1689.5</v>
+      </c>
+      <c r="P68">
+        <v>1213.4000000000001</v>
+      </c>
+      <c r="Q68">
+        <v>-75.3</v>
+      </c>
+      <c r="R68">
+        <v>42947</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3093.3</v>
+      </c>
+      <c r="U68">
+        <v>46</v>
+      </c>
+      <c r="V68">
+        <v>154.5</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-170.9</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>88.6</v>
+      </c>
+      <c r="D69">
+        <v>561.5</v>
+      </c>
+      <c r="E69">
+        <v>316.60000000000002</v>
+      </c>
+      <c r="F69">
+        <v>364.9</v>
+      </c>
+      <c r="G69">
+        <v>953.2</v>
+      </c>
+      <c r="H69">
+        <v>4858.7</v>
+      </c>
+      <c r="I69">
+        <v>142.1</v>
+      </c>
+      <c r="J69">
+        <v>1149.3</v>
+      </c>
+      <c r="K69">
+        <v>23.4</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>396.1</v>
+      </c>
+      <c r="O69">
+        <v>1682.9</v>
+      </c>
+      <c r="P69">
+        <v>1172.7</v>
+      </c>
+      <c r="Q69">
+        <v>42.8</v>
+      </c>
+      <c r="R69">
+        <v>43039</v>
+      </c>
+      <c r="S69">
+        <v>11800</v>
+      </c>
+      <c r="T69">
+        <v>3175.8</v>
+      </c>
+      <c r="U69">
+        <v>88.8</v>
+      </c>
+      <c r="V69">
+        <v>199</v>
+      </c>
+      <c r="W69">
+        <v>-1.4</v>
+      </c>
+      <c r="X69">
+        <v>-67</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-122.5</v>
+      </c>
+      <c r="D70">
+        <v>590</v>
+      </c>
+      <c r="E70">
+        <v>413.8</v>
+      </c>
+      <c r="F70">
+        <v>387.8</v>
+      </c>
+      <c r="G70">
+        <v>1175.5</v>
+      </c>
+      <c r="H70">
+        <v>6268.6</v>
+      </c>
+      <c r="I70">
+        <v>107.9</v>
+      </c>
+      <c r="J70">
+        <v>2372.9</v>
+      </c>
+      <c r="K70">
+        <v>29.6</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-445.8</v>
+      </c>
+      <c r="N70">
+        <v>415.7</v>
+      </c>
+      <c r="O70">
+        <v>3112.2</v>
+      </c>
+      <c r="P70">
+        <v>2402.5</v>
+      </c>
+      <c r="Q70">
+        <v>2.9</v>
+      </c>
+      <c r="R70">
+        <v>43131</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>3156.4</v>
+      </c>
+      <c r="U70">
+        <v>91.7</v>
+      </c>
+      <c r="V70">
+        <v>26.2</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>1217.4000000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-122.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>60.9</v>
+      </c>
+      <c r="D71">
+        <v>631.29999999999995</v>
+      </c>
+      <c r="E71">
+        <v>432.6</v>
+      </c>
+      <c r="F71">
+        <v>422.9</v>
+      </c>
+      <c r="G71">
+        <v>1272.4000000000001</v>
+      </c>
+      <c r="H71">
+        <v>6414.4</v>
+      </c>
+      <c r="I71">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="J71">
+        <v>2442.4</v>
+      </c>
+      <c r="K71">
+        <v>41.3</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>460.4</v>
+      </c>
+      <c r="O71">
+        <v>3226.4</v>
+      </c>
+      <c r="P71">
+        <v>2483.6999999999998</v>
+      </c>
+      <c r="Q71">
+        <v>73.2</v>
+      </c>
+      <c r="R71">
+        <v>43220</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3188</v>
+      </c>
+      <c r="U71">
+        <v>164.9</v>
+      </c>
+      <c r="V71">
+        <v>170.9</v>
+      </c>
+      <c r="W71">
+        <v>-1.5</v>
+      </c>
+      <c r="X71">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>100.8</v>
+      </c>
+      <c r="D72">
+        <v>660</v>
+      </c>
+      <c r="E72">
+        <v>375.6</v>
+      </c>
+      <c r="F72">
+        <v>445</v>
+      </c>
+      <c r="G72">
+        <v>1188.8</v>
+      </c>
+      <c r="H72">
+        <v>6256.9</v>
+      </c>
+      <c r="I72">
+        <v>120.8</v>
+      </c>
+      <c r="J72">
+        <v>2248.9</v>
+      </c>
+      <c r="K72">
+        <v>45.3</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>461.4</v>
+      </c>
+      <c r="O72">
+        <v>3030.3</v>
+      </c>
+      <c r="P72">
+        <v>2294.1999999999998</v>
+      </c>
+      <c r="Q72">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="R72">
+        <v>43312</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3226.6</v>
+      </c>
+      <c r="U72">
+        <v>155.6</v>
+      </c>
+      <c r="V72">
+        <v>235.2</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-188.6</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>100.7</v>
+      </c>
+      <c r="D73">
+        <v>651.5</v>
+      </c>
+      <c r="E73">
+        <v>374.7</v>
+      </c>
+      <c r="F73">
+        <v>406.8</v>
+      </c>
+      <c r="G73">
+        <v>1090.9000000000001</v>
+      </c>
+      <c r="H73">
+        <v>6112.8</v>
+      </c>
+      <c r="I73">
+        <v>146.4</v>
+      </c>
+      <c r="J73">
+        <v>1985.7</v>
+      </c>
+      <c r="K73">
+        <v>37.1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>536.5</v>
+      </c>
+      <c r="O73">
+        <v>2805</v>
+      </c>
+      <c r="P73">
+        <v>2022.8</v>
+      </c>
+      <c r="Q73">
+        <v>-75.400000000000006</v>
+      </c>
+      <c r="R73">
+        <v>43404</v>
+      </c>
+      <c r="S73">
+        <v>12000</v>
+      </c>
+      <c r="T73">
+        <v>3307.8</v>
+      </c>
+      <c r="U73">
+        <v>77.7</v>
+      </c>
+      <c r="V73">
+        <v>236.6</v>
+      </c>
+      <c r="W73">
+        <v>-1.4</v>
+      </c>
+      <c r="X73">
+        <v>-263.3</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>103.2</v>
+      </c>
+      <c r="D74">
+        <v>628.1</v>
+      </c>
+      <c r="E74">
+        <v>389.7</v>
+      </c>
+      <c r="F74">
+        <v>418.5</v>
+      </c>
+      <c r="G74">
+        <v>1193</v>
+      </c>
+      <c r="H74">
+        <v>6298.6</v>
+      </c>
+      <c r="I74">
+        <v>129.6</v>
+      </c>
+      <c r="J74">
+        <v>1686.9</v>
+      </c>
+      <c r="K74">
+        <v>445.5</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-560.79999999999995</v>
+      </c>
+      <c r="N74">
+        <v>938.6</v>
+      </c>
+      <c r="O74">
+        <v>2873.1</v>
+      </c>
+      <c r="P74">
+        <v>2132.4</v>
+      </c>
+      <c r="Q74">
+        <v>66.7</v>
+      </c>
+      <c r="R74">
+        <v>43496</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>3425.5</v>
+      </c>
+      <c r="U74">
+        <v>146.6</v>
+      </c>
+      <c r="V74">
+        <v>101.8</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>93.2</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>103.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>122.3</v>
+      </c>
+      <c r="D75">
+        <v>654.29999999999995</v>
+      </c>
+      <c r="E75">
+        <v>396.2</v>
+      </c>
+      <c r="F75">
+        <v>440.3</v>
+      </c>
+      <c r="G75">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="H75">
+        <v>6203.4</v>
+      </c>
+      <c r="I75">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="J75">
+        <v>1472.3</v>
+      </c>
+      <c r="K75">
+        <v>454.6</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>940.9</v>
+      </c>
+      <c r="O75">
+        <v>2661.2</v>
+      </c>
+      <c r="P75">
+        <v>1926.9</v>
+      </c>
+      <c r="Q75">
+        <v>-42</v>
+      </c>
+      <c r="R75">
+        <v>43585</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3542.2</v>
+      </c>
+      <c r="U75">
+        <v>104.6</v>
+      </c>
+      <c r="V75">
+        <v>214.8</v>
+      </c>
+      <c r="W75">
+        <v>-1.5</v>
+      </c>
+      <c r="X75">
+        <v>-201.9</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>120.2</v>
+      </c>
+      <c r="D76">
+        <v>679.4</v>
+      </c>
+      <c r="E76">
+        <v>404.7</v>
+      </c>
+      <c r="F76">
+        <v>457.2</v>
+      </c>
+      <c r="G76">
+        <v>1150.8</v>
+      </c>
+      <c r="H76">
+        <v>6172.8</v>
+      </c>
+      <c r="I76">
+        <v>141.5</v>
+      </c>
+      <c r="J76">
+        <v>1422.6</v>
+      </c>
+      <c r="K76">
+        <v>390</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>889.4</v>
+      </c>
+      <c r="O76">
+        <v>2557.3000000000002</v>
+      </c>
+      <c r="P76">
+        <v>1812.6</v>
+      </c>
+      <c r="Q76">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R76">
+        <v>43677</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3615.5</v>
+      </c>
+      <c r="U76">
+        <v>112.7</v>
+      </c>
+      <c r="V76">
+        <v>196.7</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-103.6</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>120.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>121</v>
+      </c>
+      <c r="D77">
+        <v>691.6</v>
+      </c>
+      <c r="E77">
+        <v>435.3</v>
+      </c>
+      <c r="F77">
+        <v>465.5</v>
+      </c>
+      <c r="G77">
+        <v>1163.4000000000001</v>
+      </c>
+      <c r="H77">
+        <v>6274.5</v>
+      </c>
+      <c r="I77">
+        <v>150.1</v>
+      </c>
+      <c r="J77">
+        <v>1262.5999999999999</v>
+      </c>
+      <c r="K77">
+        <v>63.7</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1110.5999999999999</v>
+      </c>
+      <c r="O77">
+        <v>2645.9</v>
+      </c>
+      <c r="P77">
+        <v>1826.3</v>
+      </c>
+      <c r="Q77">
+        <v>-23.7</v>
+      </c>
+      <c r="R77">
+        <v>43769</v>
+      </c>
+      <c r="S77">
+        <v>12000</v>
+      </c>
+      <c r="T77">
+        <v>3628.6</v>
+      </c>
+      <c r="U77">
+        <v>89</v>
+      </c>
+      <c r="V77">
+        <v>199.9</v>
+      </c>
+      <c r="W77">
+        <v>-1.5</v>
+      </c>
+      <c r="X77">
+        <v>-139.1</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>90.5</v>
+      </c>
+      <c r="D78">
+        <v>646.20000000000005</v>
+      </c>
+      <c r="E78">
+        <v>408</v>
+      </c>
+      <c r="F78">
+        <v>426.5</v>
+      </c>
+      <c r="G78">
+        <v>1149.9000000000001</v>
+      </c>
+      <c r="H78">
+        <v>6548.5</v>
+      </c>
+      <c r="I78">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="J78">
+        <v>1233.7</v>
+      </c>
+      <c r="K78">
+        <v>43</v>
+      </c>
+      <c r="L78">
+        <v>-20.8</v>
+      </c>
+      <c r="M78">
+        <v>-263.10000000000002</v>
+      </c>
+      <c r="N78">
+        <v>1068.5</v>
+      </c>
+      <c r="O78">
+        <v>2817.6</v>
+      </c>
+      <c r="P78">
+        <v>2049.4</v>
+      </c>
+      <c r="Q78">
+        <v>-12.1</v>
+      </c>
+      <c r="R78">
+        <v>43861</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>3730.9</v>
+      </c>
+      <c r="U78">
+        <v>76.8</v>
+      </c>
+      <c r="V78">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-63.2</v>
+      </c>
+      <c r="Y78">
+        <v>241.2</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>11.5</v>
+      </c>
+      <c r="D79">
+        <v>524.9</v>
+      </c>
+      <c r="E79">
+        <v>368.8</v>
+      </c>
+      <c r="F79">
+        <v>323.5</v>
+      </c>
+      <c r="G79">
+        <v>1166.2</v>
+      </c>
+      <c r="H79">
+        <v>6510</v>
+      </c>
+      <c r="I79">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="J79">
+        <v>1361.8</v>
+      </c>
+      <c r="K79">
+        <v>54.6</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1025.3</v>
+      </c>
+      <c r="O79">
+        <v>2882.5</v>
+      </c>
+      <c r="P79">
+        <v>2181.3000000000002</v>
+      </c>
+      <c r="Q79">
+        <v>3.4</v>
+      </c>
+      <c r="R79">
+        <v>43951</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3627.5</v>
+      </c>
+      <c r="U79">
+        <v>79.8</v>
+      </c>
+      <c r="V79">
+        <v>25.8</v>
+      </c>
+      <c r="W79">
+        <v>-1.5</v>
+      </c>
+      <c r="X79">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="Y79">
+        <v>232.7</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>55.2</v>
+      </c>
+      <c r="D80">
+        <v>578.20000000000005</v>
+      </c>
+      <c r="E80">
+        <v>450.5</v>
+      </c>
+      <c r="F80">
+        <v>360.8</v>
+      </c>
+      <c r="G80">
+        <v>1321.3</v>
+      </c>
+      <c r="H80">
+        <v>6748.4</v>
+      </c>
+      <c r="I80">
+        <v>180.2</v>
+      </c>
+      <c r="J80">
+        <v>1350.9</v>
+      </c>
+      <c r="K80">
+        <v>52.7</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1128.7</v>
+      </c>
+      <c r="O80">
+        <v>2988</v>
+      </c>
+      <c r="P80">
+        <v>2173.1</v>
+      </c>
+      <c r="Q80">
+        <v>47.5</v>
+      </c>
+      <c r="R80">
+        <v>44043</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3760.4</v>
+      </c>
+      <c r="U80">
+        <v>127.4</v>
+      </c>
+      <c r="V80">
+        <v>112.8</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="Y80">
+        <v>236.6</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>81.2</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>681.6</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>435.4</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>514.1</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>1274.2</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>6737.5</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>176</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>1400.4</v>
       </c>
-      <c r="K42">
+      <c r="K81">
         <v>59.4</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>1004.4</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>2912.7</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>2080.4</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>-11.5</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44135</v>
       </c>
-      <c r="S42">
+      <c r="S81">
         <v>12000</v>
       </c>
-      <c r="T42">
+      <c r="T81">
         <v>3824.8</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>115.9</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>218.3</v>
       </c>
-      <c r="W42">
+      <c r="W81">
         <v>-1.5</v>
       </c>
-      <c r="X42">
+      <c r="X81">
         <v>-85.3</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>236.8</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
         <v>81.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>2101.1</v>
+      </c>
+      <c r="D82">
+        <v>680.5</v>
+      </c>
+      <c r="E82">
+        <v>461.2</v>
+      </c>
+      <c r="F82">
+        <v>450.7</v>
+      </c>
+      <c r="G82">
+        <v>1297.4000000000001</v>
+      </c>
+      <c r="H82">
+        <v>8921.9</v>
+      </c>
+      <c r="I82">
+        <v>137.4</v>
+      </c>
+      <c r="J82">
+        <v>1424.7</v>
+      </c>
+      <c r="K82">
+        <v>50.8</v>
+      </c>
+      <c r="L82">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="M82">
+        <v>-223.2</v>
+      </c>
+      <c r="N82">
+        <v>961.3</v>
+      </c>
+      <c r="O82">
+        <v>2932</v>
+      </c>
+      <c r="P82">
+        <v>2106.5</v>
+      </c>
+      <c r="Q82">
+        <v>2.9</v>
+      </c>
+      <c r="R82">
+        <v>44227</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>5989.9</v>
+      </c>
+      <c r="U82">
+        <v>119.1</v>
+      </c>
+      <c r="V82">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>-13.6</v>
+      </c>
+      <c r="Y82">
+        <v>246</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>2101.1</v>
       </c>
     </row>
   </sheetData>
